--- a/ERapp/static/KiFile.xlsx
+++ b/ERapp/static/KiFile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
   <si>
     <t>Données générales</t>
   </si>
@@ -131,49 +131,16 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Cuisine</t>
-  </si>
-  <si>
-    <t>Dégagement 1</t>
-  </si>
-  <si>
-    <t>W.C</t>
-  </si>
-  <si>
-    <t>Salle d'eau</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>Séjour</t>
-  </si>
-  <si>
-    <t>Salle d'étude</t>
-  </si>
-  <si>
     <t>Salle de bain</t>
   </si>
   <si>
     <t>Chambre 1</t>
-  </si>
-  <si>
-    <t>Chambre 2</t>
-  </si>
-  <si>
-    <t>Chambre 3</t>
-  </si>
-  <si>
-    <t>W.C 2</t>
-  </si>
-  <si>
-    <t>Dégagement 2</t>
-  </si>
-  <si>
-    <t>Cage d'escalier</t>
   </si>
   <si>
     <t>RAPPORT D'AUDIT ENERGETIQUE</t>
@@ -854,6 +821,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,6 +863,30 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,34 +896,113 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -941,117 +1014,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1449,10 +1416,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1571,31 +1538,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="30" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="T1" s="37" t="s">
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="T1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
@@ -1626,10 +1593,10 @@
       <c r="M2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="13" t="s">
         <v>25</v>
       </c>
@@ -1659,9 +1626,7 @@
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="23" t="s">
-        <v>37</v>
-      </c>
+      <c r="D3" s="23"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1679,16 +1644,14 @@
       <c r="S3" s="3"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="92"/>
+      <c r="V3" s="26"/>
       <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="D4" s="23"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1707,15 +1670,13 @@
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
-      <c r="W4" s="92"/>
+      <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="D5" s="23"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1740,9 +1701,7 @@
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="D6" s="23"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1760,10 +1719,10 @@
       <c r="S6" s="3"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="W6" s="17"/>
     </row>
@@ -1771,9 +1730,7 @@
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="D7" s="23"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1798,9 +1755,7 @@
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="23" t="s">
-        <v>43</v>
-      </c>
+      <c r="D8" s="23"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1826,7 +1781,7 @@
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
       <c r="D9" s="23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1853,7 +1808,7 @@
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1879,9 +1834,7 @@
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="23" t="s">
-        <v>46</v>
-      </c>
+      <c r="D11" s="23"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1906,9 +1859,7 @@
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="D12" s="23"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1933,9 +1884,7 @@
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="D13" s="23"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1952,13 +1901,13 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U13" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="W13" s="17"/>
     </row>
@@ -1966,9 +1915,7 @@
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="D14" s="23"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1985,13 +1932,13 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="W14" s="17"/>
     </row>
@@ -1999,9 +1946,7 @@
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="23" t="s">
-        <v>50</v>
-      </c>
+      <c r="D15" s="23"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2043,13 +1988,13 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="W16" s="17"/>
     </row>
@@ -2086,15 +2031,15 @@
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="A4" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2118,59 +2063,59 @@
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="51"/>
+      <c r="B25" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="47"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="51"/>
+      <c r="E25" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="2:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
     </row>
     <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2182,13 +2127,13 @@
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
+      <c r="B37" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2199,6 +2144,13 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="A4:G4"/>
@@ -2206,13 +2158,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <pageMargins left="0.39370078740157" right="0.39370078740157" top="0.78740157480314998" bottom="0.51181102362205" header="0.31496062992126" footer="0.27559055118109999"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2229,7 +2174,7 @@
   <dimension ref="A3:K354"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2247,1812 +2192,1812 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="A3" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
+      <c r="A7" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="25" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
+      <c r="B27" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
+      <c r="B28" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
+      <c r="B29" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
     </row>
     <row r="34" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
     </row>
     <row r="35" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
     </row>
     <row r="37" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
     </row>
     <row r="45" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
     </row>
     <row r="47" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
     </row>
     <row r="48" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
     </row>
     <row r="49" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="56"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="56"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="56"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="56"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="56"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
     </row>
     <row r="57" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
     </row>
     <row r="61" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
+      <c r="B61" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="82"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="80"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
+      <c r="B62" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="85"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="69"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
+      <c r="B63" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="82"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="69"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
+      <c r="B64" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="82"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
     </row>
     <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
+      <c r="B65" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="82"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
     </row>
     <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="69"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
+      <c r="B66" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="82"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
     </row>
     <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
     </row>
     <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
     </row>
     <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
     </row>
     <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
     </row>
     <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
     </row>
     <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
     </row>
     <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
     </row>
     <row r="74" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="55"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
     </row>
     <row r="77" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
+      <c r="B77" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
     </row>
     <row r="78" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
+      <c r="B78" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
     </row>
     <row r="79" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
+      <c r="B79" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
     </row>
     <row r="80" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
+      <c r="B80" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
     </row>
     <row r="81" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
+      <c r="B81" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
     </row>
     <row r="82" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C82" s="69"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
+      <c r="B82" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="82"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
     </row>
     <row r="83" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
     </row>
     <row r="84" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="56"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
     </row>
     <row r="85" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="56"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
     </row>
     <row r="86" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="56"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
     </row>
     <row r="87" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
     </row>
     <row r="88" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="56"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
     </row>
     <row r="89" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="56"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
     </row>
     <row r="90" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
+      <c r="B91" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
     </row>
     <row r="92" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" s="57"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="77"/>
+      <c r="B92" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="62"/>
     </row>
     <row r="93" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" s="57"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="73"/>
-      <c r="F93" s="74"/>
+      <c r="B93" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="64"/>
     </row>
     <row r="94" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" s="57"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="74"/>
+      <c r="B94" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="67"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="64"/>
     </row>
     <row r="95" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C95" s="57"/>
-      <c r="D95" s="57"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="74"/>
+      <c r="B95" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="67"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="64"/>
     </row>
     <row r="96" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C96" s="57"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="72"/>
+      <c r="B96" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="67"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="60"/>
     </row>
     <row r="97" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C97" s="57"/>
-      <c r="D97" s="57"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="72"/>
+      <c r="B97" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="67"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="60"/>
     </row>
     <row r="98" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" s="69"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
+      <c r="B98" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" s="82"/>
+      <c r="D98" s="83"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
     </row>
     <row r="99" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="56"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
     </row>
     <row r="100" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="56"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
     </row>
     <row r="101" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="56"/>
-      <c r="C101" s="56"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
     </row>
     <row r="102" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="56"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
     </row>
     <row r="103" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="56"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
     </row>
     <row r="104" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="56"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="57"/>
     </row>
     <row r="105" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="56"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="57"/>
     </row>
     <row r="106" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C107" s="55"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="55"/>
+      <c r="B107" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" s="56"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
     </row>
     <row r="108" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="57" t="s">
+      <c r="B108" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" s="67"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F108" s="62"/>
+    </row>
+    <row r="109" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" s="67"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F109" s="64"/>
+    </row>
+    <row r="110" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" s="67"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F110" s="64"/>
+    </row>
+    <row r="111" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="64"/>
+    </row>
+    <row r="112" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="67"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F112" s="60"/>
+    </row>
+    <row r="113" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" s="67"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="59"/>
+      <c r="F113" s="60"/>
+    </row>
+    <row r="114" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" s="82"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="58"/>
+      <c r="F114" s="58"/>
+    </row>
+    <row r="115" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="87"/>
+      <c r="C115" s="87"/>
+      <c r="D115" s="87"/>
+      <c r="E115" s="87"/>
+      <c r="F115" s="87"/>
+    </row>
+    <row r="116" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="87"/>
+      <c r="C116" s="87"/>
+      <c r="D116" s="87"/>
+      <c r="E116" s="87"/>
+      <c r="F116" s="87"/>
+    </row>
+    <row r="117" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="87"/>
+      <c r="C117" s="87"/>
+      <c r="D117" s="87"/>
+      <c r="E117" s="87"/>
+      <c r="F117" s="87"/>
+    </row>
+    <row r="118" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="87"/>
+      <c r="C118" s="87"/>
+      <c r="D118" s="87"/>
+      <c r="E118" s="87"/>
+      <c r="F118" s="87"/>
+    </row>
+    <row r="119" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="87"/>
+      <c r="C119" s="87"/>
+      <c r="D119" s="87"/>
+      <c r="E119" s="87"/>
+      <c r="F119" s="87"/>
+    </row>
+    <row r="120" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="87"/>
+      <c r="C120" s="87"/>
+      <c r="D120" s="87"/>
+      <c r="E120" s="87"/>
+      <c r="F120" s="87"/>
+    </row>
+    <row r="121" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="87"/>
+      <c r="C121" s="87"/>
+      <c r="D121" s="87"/>
+      <c r="E121" s="87"/>
+      <c r="F121" s="87"/>
+    </row>
+    <row r="123" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" s="56"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="56"/>
+      <c r="F123" s="56"/>
+    </row>
+    <row r="124" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="67"/>
+      <c r="D124" s="67"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="62"/>
+    </row>
+    <row r="125" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C125" s="67"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="63"/>
+      <c r="F125" s="64"/>
+    </row>
+    <row r="126" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" s="67"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="63"/>
+      <c r="F126" s="64"/>
+    </row>
+    <row r="127" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C127" s="67"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="63"/>
+      <c r="F127" s="64"/>
+    </row>
+    <row r="128" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C128" s="67"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="59"/>
+      <c r="F128" s="60"/>
+    </row>
+    <row r="129" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" s="67"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="59"/>
+      <c r="F129" s="60"/>
+    </row>
+    <row r="130" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C130" s="82"/>
+      <c r="D130" s="83"/>
+      <c r="E130" s="58"/>
+      <c r="F130" s="58"/>
+    </row>
+    <row r="131" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="57"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="57"/>
+    </row>
+    <row r="132" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="57"/>
+      <c r="C132" s="57"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="57"/>
+      <c r="F132" s="57"/>
+    </row>
+    <row r="133" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="57"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="57"/>
+      <c r="F133" s="57"/>
+    </row>
+    <row r="134" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="57"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="57"/>
+    </row>
+    <row r="135" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="57"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="57"/>
+      <c r="F135" s="57"/>
+    </row>
+    <row r="136" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="57"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="57"/>
+    </row>
+    <row r="137" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="57"/>
+      <c r="C137" s="57"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="57"/>
+      <c r="F137" s="57"/>
+    </row>
+    <row r="139" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" s="56"/>
+      <c r="D139" s="56"/>
+      <c r="E139" s="56"/>
+      <c r="F139" s="56"/>
+    </row>
+    <row r="140" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C140" s="67"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="61"/>
+      <c r="F140" s="62"/>
+    </row>
+    <row r="141" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="63"/>
+      <c r="F141" s="64"/>
+    </row>
+    <row r="142" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="63"/>
+      <c r="F142" s="64"/>
+    </row>
+    <row r="143" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C143" s="67"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="64"/>
+    </row>
+    <row r="144" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144" s="67"/>
+      <c r="D144" s="67"/>
+      <c r="E144" s="59"/>
+      <c r="F144" s="60"/>
+    </row>
+    <row r="145" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" s="67"/>
+      <c r="D145" s="67"/>
+      <c r="E145" s="59"/>
+      <c r="F145" s="60"/>
+    </row>
+    <row r="146" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C146" s="82"/>
+      <c r="D146" s="83"/>
+      <c r="E146" s="58"/>
+      <c r="F146" s="58"/>
+    </row>
+    <row r="147" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="57"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="57"/>
+      <c r="F147" s="57"/>
+    </row>
+    <row r="148" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="57"/>
+      <c r="C148" s="57"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="57"/>
+      <c r="F148" s="57"/>
+    </row>
+    <row r="149" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="57"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="57"/>
+      <c r="F149" s="57"/>
+    </row>
+    <row r="150" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="57"/>
+      <c r="C150" s="57"/>
+      <c r="D150" s="57"/>
+      <c r="E150" s="57"/>
+      <c r="F150" s="57"/>
+    </row>
+    <row r="151" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="57"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="57"/>
+      <c r="E151" s="57"/>
+      <c r="F151" s="57"/>
+    </row>
+    <row r="152" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="57"/>
+      <c r="C152" s="57"/>
+      <c r="D152" s="57"/>
+      <c r="E152" s="57"/>
+      <c r="F152" s="57"/>
+    </row>
+    <row r="153" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="57"/>
+      <c r="C153" s="57"/>
+      <c r="D153" s="57"/>
+      <c r="E153" s="57"/>
+      <c r="F153" s="57"/>
+    </row>
+    <row r="155" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C155" s="56"/>
+      <c r="D155" s="56"/>
+      <c r="E155" s="56"/>
+      <c r="F155" s="56"/>
+    </row>
+    <row r="156" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C156" s="67"/>
+      <c r="D156" s="67"/>
+      <c r="E156" s="61"/>
+      <c r="F156" s="62"/>
+    </row>
+    <row r="157" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C157" s="67"/>
+      <c r="D157" s="67"/>
+      <c r="E157" s="63"/>
+      <c r="F157" s="64"/>
+    </row>
+    <row r="158" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C158" s="67"/>
+      <c r="D158" s="67"/>
+      <c r="E158" s="63"/>
+      <c r="F158" s="64"/>
+    </row>
+    <row r="159" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C159" s="67"/>
+      <c r="D159" s="67"/>
+      <c r="E159" s="59"/>
+      <c r="F159" s="60"/>
+    </row>
+    <row r="160" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="57"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="57"/>
+      <c r="E160" s="57"/>
+      <c r="F160" s="57"/>
+    </row>
+    <row r="161" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="57"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="57"/>
+      <c r="F161" s="57"/>
+    </row>
+    <row r="162" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="57"/>
+      <c r="C162" s="57"/>
+      <c r="D162" s="57"/>
+      <c r="E162" s="57"/>
+      <c r="F162" s="57"/>
+    </row>
+    <row r="163" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="57"/>
+      <c r="C163" s="57"/>
+      <c r="D163" s="57"/>
+      <c r="E163" s="57"/>
+      <c r="F163" s="57"/>
+    </row>
+    <row r="164" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="57"/>
+      <c r="C164" s="57"/>
+      <c r="D164" s="57"/>
+      <c r="E164" s="57"/>
+      <c r="F164" s="57"/>
+    </row>
+    <row r="165" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="57"/>
+      <c r="C165" s="57"/>
+      <c r="D165" s="57"/>
+      <c r="E165" s="57"/>
+      <c r="F165" s="57"/>
+    </row>
+    <row r="166" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="57"/>
+      <c r="C166" s="57"/>
+      <c r="D166" s="57"/>
+      <c r="E166" s="57"/>
+      <c r="F166" s="57"/>
+    </row>
+    <row r="169" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="F108" s="77"/>
-    </row>
-    <row r="109" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C109" s="57"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="F109" s="74"/>
-    </row>
-    <row r="110" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="F110" s="74"/>
-    </row>
-    <row r="111" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="57"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="73"/>
-      <c r="F111" s="74"/>
-    </row>
-    <row r="112" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="57" t="s">
+      <c r="C169" s="56"/>
+      <c r="D169" s="56"/>
+      <c r="E169" s="56"/>
+      <c r="F169" s="56"/>
+    </row>
+    <row r="170" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C170" s="67"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="58"/>
+      <c r="F170" s="58"/>
+    </row>
+    <row r="171" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="F112" s="72"/>
-    </row>
-    <row r="113" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
-      <c r="E113" s="71"/>
-      <c r="F113" s="72"/>
-    </row>
-    <row r="114" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="68" t="s">
+      <c r="C171" s="67"/>
+      <c r="D171" s="67"/>
+      <c r="E171" s="58"/>
+      <c r="F171" s="58"/>
+    </row>
+    <row r="172" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C114" s="69"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-    </row>
-    <row r="115" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="75"/>
-      <c r="C115" s="75"/>
-      <c r="D115" s="75"/>
-      <c r="E115" s="75"/>
-      <c r="F115" s="75"/>
-    </row>
-    <row r="116" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="75"/>
-      <c r="C116" s="75"/>
-      <c r="D116" s="75"/>
-      <c r="E116" s="75"/>
-      <c r="F116" s="75"/>
-    </row>
-    <row r="117" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="75"/>
-      <c r="C117" s="75"/>
-      <c r="D117" s="75"/>
-      <c r="E117" s="75"/>
-      <c r="F117" s="75"/>
-    </row>
-    <row r="118" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="75"/>
-      <c r="C118" s="75"/>
-      <c r="D118" s="75"/>
-      <c r="E118" s="75"/>
-      <c r="F118" s="75"/>
-    </row>
-    <row r="119" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="75"/>
-      <c r="C119" s="75"/>
-      <c r="D119" s="75"/>
-      <c r="E119" s="75"/>
-      <c r="F119" s="75"/>
-    </row>
-    <row r="120" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="75"/>
-      <c r="C120" s="75"/>
-      <c r="D120" s="75"/>
-      <c r="E120" s="75"/>
-      <c r="F120" s="75"/>
-    </row>
-    <row r="121" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="75"/>
-      <c r="C121" s="75"/>
-      <c r="D121" s="75"/>
-      <c r="E121" s="75"/>
-      <c r="F121" s="75"/>
-    </row>
-    <row r="123" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C123" s="55"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="55"/>
-      <c r="F123" s="55"/>
-    </row>
-    <row r="124" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C124" s="57"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="76"/>
-      <c r="F124" s="77"/>
-    </row>
-    <row r="125" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C125" s="57"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="74"/>
-    </row>
-    <row r="126" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C126" s="57"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="73"/>
-      <c r="F126" s="74"/>
-    </row>
-    <row r="127" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C127" s="57"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="73"/>
-      <c r="F127" s="74"/>
-    </row>
-    <row r="128" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C128" s="57"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="72"/>
-    </row>
-    <row r="129" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C129" s="57"/>
-      <c r="D129" s="57"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="72"/>
-    </row>
-    <row r="130" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C130" s="69"/>
-      <c r="D130" s="70"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="67"/>
-    </row>
-    <row r="131" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="56"/>
-      <c r="C131" s="56"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="56"/>
-    </row>
-    <row r="132" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="56"/>
-      <c r="C132" s="56"/>
-      <c r="D132" s="56"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="56"/>
-    </row>
-    <row r="133" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="56"/>
-      <c r="C133" s="56"/>
-      <c r="D133" s="56"/>
-      <c r="E133" s="56"/>
-      <c r="F133" s="56"/>
-    </row>
-    <row r="134" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="56"/>
-      <c r="C134" s="56"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="56"/>
-      <c r="F134" s="56"/>
-    </row>
-    <row r="135" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="56"/>
-      <c r="C135" s="56"/>
-      <c r="D135" s="56"/>
-      <c r="E135" s="56"/>
-      <c r="F135" s="56"/>
-    </row>
-    <row r="136" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="56"/>
-      <c r="C136" s="56"/>
-      <c r="D136" s="56"/>
-      <c r="E136" s="56"/>
-      <c r="F136" s="56"/>
-    </row>
-    <row r="137" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="56"/>
-      <c r="C137" s="56"/>
-      <c r="D137" s="56"/>
-      <c r="E137" s="56"/>
-      <c r="F137" s="56"/>
-    </row>
-    <row r="139" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C139" s="55"/>
-      <c r="D139" s="55"/>
-      <c r="E139" s="55"/>
-      <c r="F139" s="55"/>
-    </row>
-    <row r="140" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C140" s="57"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="76"/>
-      <c r="F140" s="77"/>
-    </row>
-    <row r="141" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C141" s="57"/>
-      <c r="D141" s="57"/>
-      <c r="E141" s="73"/>
-      <c r="F141" s="74"/>
-    </row>
-    <row r="142" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C142" s="57"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="73"/>
-      <c r="F142" s="74"/>
-    </row>
-    <row r="143" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C143" s="57"/>
-      <c r="D143" s="57"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="74"/>
-    </row>
-    <row r="144" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C144" s="57"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="72"/>
-    </row>
-    <row r="145" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C145" s="57"/>
-      <c r="D145" s="57"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="72"/>
-    </row>
-    <row r="146" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C146" s="69"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
-    </row>
-    <row r="147" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="56"/>
-      <c r="C147" s="56"/>
-      <c r="D147" s="56"/>
-      <c r="E147" s="56"/>
-      <c r="F147" s="56"/>
-    </row>
-    <row r="148" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="56"/>
-      <c r="C148" s="56"/>
-      <c r="D148" s="56"/>
-      <c r="E148" s="56"/>
-      <c r="F148" s="56"/>
-    </row>
-    <row r="149" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="56"/>
-      <c r="C149" s="56"/>
-      <c r="D149" s="56"/>
-      <c r="E149" s="56"/>
-      <c r="F149" s="56"/>
-    </row>
-    <row r="150" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="56"/>
-      <c r="C150" s="56"/>
-      <c r="D150" s="56"/>
-      <c r="E150" s="56"/>
-      <c r="F150" s="56"/>
-    </row>
-    <row r="151" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="56"/>
-      <c r="C151" s="56"/>
-      <c r="D151" s="56"/>
-      <c r="E151" s="56"/>
-      <c r="F151" s="56"/>
-    </row>
-    <row r="152" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="56"/>
-      <c r="C152" s="56"/>
-      <c r="D152" s="56"/>
-      <c r="E152" s="56"/>
-      <c r="F152" s="56"/>
-    </row>
-    <row r="153" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="56"/>
-      <c r="C153" s="56"/>
-      <c r="D153" s="56"/>
-      <c r="E153" s="56"/>
-      <c r="F153" s="56"/>
-    </row>
-    <row r="155" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C155" s="55"/>
-      <c r="D155" s="55"/>
-      <c r="E155" s="55"/>
-      <c r="F155" s="55"/>
-    </row>
-    <row r="156" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C156" s="57"/>
-      <c r="D156" s="57"/>
-      <c r="E156" s="76"/>
-      <c r="F156" s="77"/>
-    </row>
-    <row r="157" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C157" s="57"/>
-      <c r="D157" s="57"/>
-      <c r="E157" s="73"/>
-      <c r="F157" s="74"/>
-    </row>
-    <row r="158" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C158" s="57"/>
-      <c r="D158" s="57"/>
-      <c r="E158" s="73"/>
-      <c r="F158" s="74"/>
-    </row>
-    <row r="159" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C159" s="57"/>
-      <c r="D159" s="57"/>
-      <c r="E159" s="71"/>
-      <c r="F159" s="72"/>
-    </row>
-    <row r="160" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="56"/>
-      <c r="C160" s="56"/>
-      <c r="D160" s="56"/>
-      <c r="E160" s="56"/>
-      <c r="F160" s="56"/>
-    </row>
-    <row r="161" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="56"/>
-      <c r="C161" s="56"/>
-      <c r="D161" s="56"/>
-      <c r="E161" s="56"/>
-      <c r="F161" s="56"/>
-    </row>
-    <row r="162" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="56"/>
-      <c r="C162" s="56"/>
-      <c r="D162" s="56"/>
-      <c r="E162" s="56"/>
-      <c r="F162" s="56"/>
-    </row>
-    <row r="163" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="56"/>
-      <c r="C163" s="56"/>
-      <c r="D163" s="56"/>
-      <c r="E163" s="56"/>
-      <c r="F163" s="56"/>
-    </row>
-    <row r="164" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="56"/>
-      <c r="C164" s="56"/>
-      <c r="D164" s="56"/>
-      <c r="E164" s="56"/>
-      <c r="F164" s="56"/>
-    </row>
-    <row r="165" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="56"/>
-      <c r="C165" s="56"/>
-      <c r="D165" s="56"/>
-      <c r="E165" s="56"/>
-      <c r="F165" s="56"/>
-    </row>
-    <row r="166" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="56"/>
-      <c r="C166" s="56"/>
-      <c r="D166" s="56"/>
-      <c r="E166" s="56"/>
-      <c r="F166" s="56"/>
-    </row>
-    <row r="169" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C169" s="55"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="55"/>
-      <c r="F169" s="55"/>
-    </row>
-    <row r="170" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C170" s="57"/>
-      <c r="D170" s="57"/>
-      <c r="E170" s="67"/>
-      <c r="F170" s="67"/>
-    </row>
-    <row r="171" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C171" s="57"/>
-      <c r="D171" s="57"/>
-      <c r="E171" s="67"/>
-      <c r="F171" s="67"/>
-    </row>
-    <row r="172" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C172" s="57"/>
-      <c r="D172" s="57"/>
-      <c r="E172" s="67"/>
-      <c r="F172" s="67"/>
+      <c r="C172" s="67"/>
+      <c r="D172" s="67"/>
+      <c r="E172" s="58"/>
+      <c r="F172" s="58"/>
     </row>
     <row r="173" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C173" s="57"/>
-      <c r="D173" s="57"/>
-      <c r="E173" s="67"/>
-      <c r="F173" s="67"/>
+      <c r="B173" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C173" s="67"/>
+      <c r="D173" s="67"/>
+      <c r="E173" s="58"/>
+      <c r="F173" s="58"/>
     </row>
     <row r="174" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="56"/>
-      <c r="C174" s="56"/>
-      <c r="D174" s="56"/>
-      <c r="E174" s="56"/>
-      <c r="F174" s="56"/>
+      <c r="B174" s="57"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="57"/>
+      <c r="E174" s="57"/>
+      <c r="F174" s="57"/>
     </row>
     <row r="175" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="56"/>
-      <c r="C175" s="56"/>
-      <c r="D175" s="56"/>
-      <c r="E175" s="56"/>
-      <c r="F175" s="56"/>
+      <c r="B175" s="57"/>
+      <c r="C175" s="57"/>
+      <c r="D175" s="57"/>
+      <c r="E175" s="57"/>
+      <c r="F175" s="57"/>
     </row>
     <row r="176" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="56"/>
-      <c r="C176" s="56"/>
-      <c r="D176" s="56"/>
-      <c r="E176" s="56"/>
-      <c r="F176" s="56"/>
+      <c r="B176" s="57"/>
+      <c r="C176" s="57"/>
+      <c r="D176" s="57"/>
+      <c r="E176" s="57"/>
+      <c r="F176" s="57"/>
     </row>
     <row r="177" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="56"/>
-      <c r="C177" s="56"/>
-      <c r="D177" s="56"/>
-      <c r="E177" s="56"/>
-      <c r="F177" s="56"/>
+      <c r="B177" s="57"/>
+      <c r="C177" s="57"/>
+      <c r="D177" s="57"/>
+      <c r="E177" s="57"/>
+      <c r="F177" s="57"/>
     </row>
     <row r="178" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="56"/>
-      <c r="C178" s="56"/>
-      <c r="D178" s="56"/>
-      <c r="E178" s="56"/>
-      <c r="F178" s="56"/>
+      <c r="B178" s="57"/>
+      <c r="C178" s="57"/>
+      <c r="D178" s="57"/>
+      <c r="E178" s="57"/>
+      <c r="F178" s="57"/>
     </row>
     <row r="179" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="56"/>
-      <c r="C179" s="56"/>
-      <c r="D179" s="56"/>
-      <c r="E179" s="56"/>
-      <c r="F179" s="56"/>
+      <c r="B179" s="57"/>
+      <c r="C179" s="57"/>
+      <c r="D179" s="57"/>
+      <c r="E179" s="57"/>
+      <c r="F179" s="57"/>
     </row>
     <row r="180" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="56"/>
-      <c r="C180" s="56"/>
-      <c r="D180" s="56"/>
-      <c r="E180" s="56"/>
-      <c r="F180" s="56"/>
+      <c r="B180" s="57"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="57"/>
+      <c r="E180" s="57"/>
+      <c r="F180" s="57"/>
     </row>
     <row r="181" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="182" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C182" s="55"/>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="55"/>
+      <c r="B182" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C182" s="56"/>
+      <c r="D182" s="56"/>
+      <c r="E182" s="56"/>
+      <c r="F182" s="56"/>
     </row>
     <row r="183" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C183" s="57"/>
-      <c r="D183" s="57"/>
-      <c r="E183" s="76"/>
-      <c r="F183" s="77"/>
+      <c r="B183" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C183" s="67"/>
+      <c r="D183" s="67"/>
+      <c r="E183" s="61"/>
+      <c r="F183" s="62"/>
     </row>
     <row r="184" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C184" s="57"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="73"/>
-      <c r="F184" s="74"/>
+      <c r="B184" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C184" s="67"/>
+      <c r="D184" s="67"/>
+      <c r="E184" s="63"/>
+      <c r="F184" s="64"/>
     </row>
     <row r="185" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C185" s="57"/>
-      <c r="D185" s="57"/>
-      <c r="E185" s="71"/>
-      <c r="F185" s="72"/>
+      <c r="B185" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C185" s="67"/>
+      <c r="D185" s="67"/>
+      <c r="E185" s="59"/>
+      <c r="F185" s="60"/>
     </row>
     <row r="186" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="56"/>
-      <c r="C186" s="56"/>
-      <c r="D186" s="56"/>
-      <c r="E186" s="56"/>
-      <c r="F186" s="56"/>
+      <c r="B186" s="57"/>
+      <c r="C186" s="57"/>
+      <c r="D186" s="57"/>
+      <c r="E186" s="57"/>
+      <c r="F186" s="57"/>
     </row>
     <row r="187" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="56"/>
-      <c r="C187" s="56"/>
-      <c r="D187" s="56"/>
-      <c r="E187" s="56"/>
-      <c r="F187" s="56"/>
+      <c r="B187" s="57"/>
+      <c r="C187" s="57"/>
+      <c r="D187" s="57"/>
+      <c r="E187" s="57"/>
+      <c r="F187" s="57"/>
     </row>
     <row r="188" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="56"/>
-      <c r="C188" s="56"/>
-      <c r="D188" s="56"/>
-      <c r="E188" s="56"/>
-      <c r="F188" s="56"/>
+      <c r="B188" s="57"/>
+      <c r="C188" s="57"/>
+      <c r="D188" s="57"/>
+      <c r="E188" s="57"/>
+      <c r="F188" s="57"/>
     </row>
     <row r="189" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="56"/>
-      <c r="C189" s="56"/>
-      <c r="D189" s="56"/>
-      <c r="E189" s="56"/>
-      <c r="F189" s="56"/>
+      <c r="B189" s="57"/>
+      <c r="C189" s="57"/>
+      <c r="D189" s="57"/>
+      <c r="E189" s="57"/>
+      <c r="F189" s="57"/>
     </row>
     <row r="190" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="56"/>
-      <c r="C190" s="56"/>
-      <c r="D190" s="56"/>
-      <c r="E190" s="56"/>
-      <c r="F190" s="56"/>
+      <c r="B190" s="57"/>
+      <c r="C190" s="57"/>
+      <c r="D190" s="57"/>
+      <c r="E190" s="57"/>
+      <c r="F190" s="57"/>
     </row>
     <row r="191" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="56"/>
-      <c r="C191" s="56"/>
-      <c r="D191" s="56"/>
-      <c r="E191" s="56"/>
-      <c r="F191" s="56"/>
+      <c r="B191" s="57"/>
+      <c r="C191" s="57"/>
+      <c r="D191" s="57"/>
+      <c r="E191" s="57"/>
+      <c r="F191" s="57"/>
     </row>
     <row r="192" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="56"/>
-      <c r="C192" s="56"/>
-      <c r="D192" s="56"/>
-      <c r="E192" s="56"/>
-      <c r="F192" s="56"/>
+      <c r="B192" s="57"/>
+      <c r="C192" s="57"/>
+      <c r="D192" s="57"/>
+      <c r="E192" s="57"/>
+      <c r="F192" s="57"/>
     </row>
     <row r="193" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="194" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C194" s="55"/>
-      <c r="D194" s="55"/>
-      <c r="E194" s="55"/>
-      <c r="F194" s="55"/>
+      <c r="B194" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C194" s="56"/>
+      <c r="D194" s="56"/>
+      <c r="E194" s="56"/>
+      <c r="F194" s="56"/>
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C195" s="57"/>
-      <c r="D195" s="57"/>
-      <c r="E195" s="76"/>
-      <c r="F195" s="77"/>
+      <c r="B195" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C195" s="67"/>
+      <c r="D195" s="67"/>
+      <c r="E195" s="61"/>
+      <c r="F195" s="62"/>
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C196" s="57"/>
-      <c r="D196" s="57"/>
-      <c r="E196" s="73"/>
-      <c r="F196" s="74"/>
+      <c r="B196" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C196" s="67"/>
+      <c r="D196" s="67"/>
+      <c r="E196" s="63"/>
+      <c r="F196" s="64"/>
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C197" s="57"/>
-      <c r="D197" s="57"/>
-      <c r="E197" s="71"/>
-      <c r="F197" s="72"/>
+      <c r="B197" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C197" s="67"/>
+      <c r="D197" s="67"/>
+      <c r="E197" s="59"/>
+      <c r="F197" s="60"/>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="56"/>
-      <c r="C198" s="56"/>
-      <c r="D198" s="56"/>
-      <c r="E198" s="56"/>
-      <c r="F198" s="56"/>
+      <c r="B198" s="57"/>
+      <c r="C198" s="57"/>
+      <c r="D198" s="57"/>
+      <c r="E198" s="57"/>
+      <c r="F198" s="57"/>
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="56"/>
-      <c r="C199" s="56"/>
-      <c r="D199" s="56"/>
-      <c r="E199" s="56"/>
-      <c r="F199" s="56"/>
+      <c r="B199" s="57"/>
+      <c r="C199" s="57"/>
+      <c r="D199" s="57"/>
+      <c r="E199" s="57"/>
+      <c r="F199" s="57"/>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="56"/>
-      <c r="C200" s="56"/>
-      <c r="D200" s="56"/>
-      <c r="E200" s="56"/>
-      <c r="F200" s="56"/>
+      <c r="B200" s="57"/>
+      <c r="C200" s="57"/>
+      <c r="D200" s="57"/>
+      <c r="E200" s="57"/>
+      <c r="F200" s="57"/>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="56"/>
-      <c r="C201" s="56"/>
-      <c r="D201" s="56"/>
-      <c r="E201" s="56"/>
-      <c r="F201" s="56"/>
+      <c r="B201" s="57"/>
+      <c r="C201" s="57"/>
+      <c r="D201" s="57"/>
+      <c r="E201" s="57"/>
+      <c r="F201" s="57"/>
     </row>
     <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="56"/>
-      <c r="C202" s="56"/>
-      <c r="D202" s="56"/>
-      <c r="E202" s="56"/>
-      <c r="F202" s="56"/>
+      <c r="B202" s="57"/>
+      <c r="C202" s="57"/>
+      <c r="D202" s="57"/>
+      <c r="E202" s="57"/>
+      <c r="F202" s="57"/>
     </row>
     <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="56"/>
-      <c r="C203" s="56"/>
-      <c r="D203" s="56"/>
-      <c r="E203" s="56"/>
-      <c r="F203" s="56"/>
+      <c r="B203" s="57"/>
+      <c r="C203" s="57"/>
+      <c r="D203" s="57"/>
+      <c r="E203" s="57"/>
+      <c r="F203" s="57"/>
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="56"/>
-      <c r="C204" s="56"/>
-      <c r="D204" s="56"/>
-      <c r="E204" s="56"/>
-      <c r="F204" s="56"/>
+      <c r="B204" s="57"/>
+      <c r="C204" s="57"/>
+      <c r="D204" s="57"/>
+      <c r="E204" s="57"/>
+      <c r="F204" s="57"/>
     </row>
     <row r="207" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="209" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="61" t="s">
+      <c r="B209" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C209" s="66"/>
+      <c r="D209" s="70"/>
+      <c r="E209" s="71"/>
+      <c r="F209" s="72"/>
+    </row>
+    <row r="210" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C209" s="62"/>
-      <c r="D209" s="63"/>
-      <c r="E209" s="64"/>
-      <c r="F209" s="65"/>
-    </row>
-    <row r="210" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C210" s="62"/>
-      <c r="D210" s="63"/>
-      <c r="E210" s="64"/>
-      <c r="F210" s="65"/>
+      <c r="C210" s="66"/>
+      <c r="D210" s="70"/>
+      <c r="E210" s="71"/>
+      <c r="F210" s="72"/>
     </row>
     <row r="211" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C211" s="62"/>
-      <c r="D211" s="63"/>
-      <c r="E211" s="64"/>
-      <c r="F211" s="65"/>
+      <c r="B211" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C211" s="66"/>
+      <c r="D211" s="70"/>
+      <c r="E211" s="71"/>
+      <c r="F211" s="72"/>
     </row>
     <row r="212" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="C212" s="62"/>
-      <c r="D212" s="63"/>
-      <c r="E212" s="64"/>
-      <c r="F212" s="65"/>
+      <c r="B212" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C212" s="66"/>
+      <c r="D212" s="70"/>
+      <c r="E212" s="71"/>
+      <c r="F212" s="72"/>
     </row>
     <row r="213" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="C213" s="62"/>
-      <c r="D213" s="63"/>
-      <c r="E213" s="64"/>
-      <c r="F213" s="65"/>
+      <c r="B213" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C213" s="66"/>
+      <c r="D213" s="70"/>
+      <c r="E213" s="71"/>
+      <c r="F213" s="72"/>
     </row>
     <row r="214" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C214" s="62"/>
-      <c r="D214" s="63"/>
-      <c r="E214" s="64"/>
-      <c r="F214" s="65"/>
+      <c r="B214" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C214" s="66"/>
+      <c r="D214" s="70"/>
+      <c r="E214" s="71"/>
+      <c r="F214" s="72"/>
     </row>
     <row r="215" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="56"/>
-      <c r="C215" s="56"/>
-      <c r="D215" s="56"/>
-      <c r="E215" s="56"/>
-      <c r="F215" s="56"/>
+      <c r="B215" s="57"/>
+      <c r="C215" s="57"/>
+      <c r="D215" s="57"/>
+      <c r="E215" s="57"/>
+      <c r="F215" s="57"/>
     </row>
     <row r="216" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="56"/>
-      <c r="C216" s="56"/>
-      <c r="D216" s="56"/>
-      <c r="E216" s="56"/>
-      <c r="F216" s="56"/>
+      <c r="B216" s="57"/>
+      <c r="C216" s="57"/>
+      <c r="D216" s="57"/>
+      <c r="E216" s="57"/>
+      <c r="F216" s="57"/>
     </row>
     <row r="217" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="56"/>
-      <c r="C217" s="56"/>
-      <c r="D217" s="56"/>
-      <c r="E217" s="56"/>
-      <c r="F217" s="56"/>
+      <c r="B217" s="57"/>
+      <c r="C217" s="57"/>
+      <c r="D217" s="57"/>
+      <c r="E217" s="57"/>
+      <c r="F217" s="57"/>
     </row>
     <row r="218" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="56"/>
-      <c r="C218" s="56"/>
-      <c r="D218" s="56"/>
-      <c r="E218" s="56"/>
-      <c r="F218" s="56"/>
+      <c r="B218" s="57"/>
+      <c r="C218" s="57"/>
+      <c r="D218" s="57"/>
+      <c r="E218" s="57"/>
+      <c r="F218" s="57"/>
     </row>
     <row r="219" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="56"/>
-      <c r="C219" s="56"/>
-      <c r="D219" s="56"/>
-      <c r="E219" s="56"/>
-      <c r="F219" s="56"/>
+      <c r="B219" s="57"/>
+      <c r="C219" s="57"/>
+      <c r="D219" s="57"/>
+      <c r="E219" s="57"/>
+      <c r="F219" s="57"/>
     </row>
     <row r="220" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="56"/>
-      <c r="C220" s="56"/>
-      <c r="D220" s="56"/>
-      <c r="E220" s="56"/>
-      <c r="F220" s="56"/>
+      <c r="B220" s="57"/>
+      <c r="C220" s="57"/>
+      <c r="D220" s="57"/>
+      <c r="E220" s="57"/>
+      <c r="F220" s="57"/>
     </row>
     <row r="221" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="56"/>
-      <c r="C221" s="56"/>
-      <c r="D221" s="56"/>
-      <c r="E221" s="56"/>
-      <c r="F221" s="56"/>
+      <c r="B221" s="57"/>
+      <c r="C221" s="57"/>
+      <c r="D221" s="57"/>
+      <c r="E221" s="57"/>
+      <c r="F221" s="57"/>
     </row>
     <row r="222" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="56"/>
-      <c r="C222" s="56"/>
-      <c r="D222" s="56"/>
-      <c r="E222" s="56"/>
-      <c r="F222" s="56"/>
+      <c r="B222" s="57"/>
+      <c r="C222" s="57"/>
+      <c r="D222" s="57"/>
+      <c r="E222" s="57"/>
+      <c r="F222" s="57"/>
     </row>
     <row r="223" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="56"/>
-      <c r="C223" s="56"/>
-      <c r="D223" s="56"/>
-      <c r="E223" s="56"/>
-      <c r="F223" s="56"/>
+      <c r="B223" s="57"/>
+      <c r="C223" s="57"/>
+      <c r="D223" s="57"/>
+      <c r="E223" s="57"/>
+      <c r="F223" s="57"/>
     </row>
     <row r="225" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="226" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C226" s="62"/>
-      <c r="D226" s="63"/>
-      <c r="E226" s="64"/>
-      <c r="F226" s="65"/>
+      <c r="B226" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C226" s="66"/>
+      <c r="D226" s="70"/>
+      <c r="E226" s="71"/>
+      <c r="F226" s="72"/>
     </row>
     <row r="227" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="82"/>
-      <c r="C227" s="83"/>
-      <c r="D227" s="83"/>
-      <c r="E227" s="83"/>
-      <c r="F227" s="84"/>
+      <c r="B227" s="74"/>
+      <c r="C227" s="75"/>
+      <c r="D227" s="75"/>
+      <c r="E227" s="75"/>
+      <c r="F227" s="76"/>
     </row>
     <row r="228" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="46"/>
-      <c r="C228" s="85"/>
-      <c r="D228" s="85"/>
-      <c r="E228" s="85"/>
-      <c r="F228" s="47"/>
+      <c r="B228" s="42"/>
+      <c r="C228" s="77"/>
+      <c r="D228" s="77"/>
+      <c r="E228" s="77"/>
+      <c r="F228" s="43"/>
     </row>
     <row r="229" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="46"/>
-      <c r="C229" s="85"/>
-      <c r="D229" s="85"/>
-      <c r="E229" s="85"/>
-      <c r="F229" s="47"/>
+      <c r="B229" s="42"/>
+      <c r="C229" s="77"/>
+      <c r="D229" s="77"/>
+      <c r="E229" s="77"/>
+      <c r="F229" s="43"/>
     </row>
     <row r="230" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="46"/>
-      <c r="C230" s="85"/>
-      <c r="D230" s="85"/>
-      <c r="E230" s="85"/>
-      <c r="F230" s="47"/>
+      <c r="B230" s="42"/>
+      <c r="C230" s="77"/>
+      <c r="D230" s="77"/>
+      <c r="E230" s="77"/>
+      <c r="F230" s="43"/>
     </row>
     <row r="231" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="46"/>
-      <c r="C231" s="85"/>
-      <c r="D231" s="85"/>
-      <c r="E231" s="85"/>
-      <c r="F231" s="47"/>
+      <c r="B231" s="42"/>
+      <c r="C231" s="77"/>
+      <c r="D231" s="77"/>
+      <c r="E231" s="77"/>
+      <c r="F231" s="43"/>
     </row>
     <row r="232" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="46"/>
-      <c r="C232" s="85"/>
-      <c r="D232" s="85"/>
-      <c r="E232" s="85"/>
-      <c r="F232" s="47"/>
+      <c r="B232" s="42"/>
+      <c r="C232" s="77"/>
+      <c r="D232" s="77"/>
+      <c r="E232" s="77"/>
+      <c r="F232" s="43"/>
     </row>
     <row r="233" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="86"/>
-      <c r="C233" s="87"/>
-      <c r="D233" s="87"/>
-      <c r="E233" s="87"/>
-      <c r="F233" s="88"/>
+      <c r="B233" s="78"/>
+      <c r="C233" s="79"/>
+      <c r="D233" s="79"/>
+      <c r="E233" s="79"/>
+      <c r="F233" s="80"/>
     </row>
     <row r="235" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="236" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C236" s="62"/>
-      <c r="D236" s="63"/>
-      <c r="E236" s="64"/>
-      <c r="F236" s="65"/>
+      <c r="B236" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C236" s="66"/>
+      <c r="D236" s="70"/>
+      <c r="E236" s="71"/>
+      <c r="F236" s="72"/>
     </row>
     <row r="237" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C237" s="62"/>
-      <c r="D237" s="63"/>
-      <c r="E237" s="64"/>
-      <c r="F237" s="65"/>
+      <c r="B237" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C237" s="66"/>
+      <c r="D237" s="70"/>
+      <c r="E237" s="71"/>
+      <c r="F237" s="72"/>
     </row>
     <row r="238" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="82"/>
-      <c r="C238" s="83"/>
-      <c r="D238" s="83"/>
-      <c r="E238" s="83"/>
-      <c r="F238" s="84"/>
+      <c r="B238" s="74"/>
+      <c r="C238" s="75"/>
+      <c r="D238" s="75"/>
+      <c r="E238" s="75"/>
+      <c r="F238" s="76"/>
     </row>
     <row r="239" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="46"/>
-      <c r="C239" s="85"/>
-      <c r="D239" s="85"/>
-      <c r="E239" s="85"/>
-      <c r="F239" s="47"/>
+      <c r="B239" s="42"/>
+      <c r="C239" s="77"/>
+      <c r="D239" s="77"/>
+      <c r="E239" s="77"/>
+      <c r="F239" s="43"/>
     </row>
     <row r="240" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="46"/>
-      <c r="C240" s="85"/>
-      <c r="D240" s="85"/>
-      <c r="E240" s="85"/>
-      <c r="F240" s="47"/>
+      <c r="B240" s="42"/>
+      <c r="C240" s="77"/>
+      <c r="D240" s="77"/>
+      <c r="E240" s="77"/>
+      <c r="F240" s="43"/>
     </row>
     <row r="241" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="46"/>
-      <c r="C241" s="85"/>
-      <c r="D241" s="85"/>
-      <c r="E241" s="85"/>
-      <c r="F241" s="47"/>
+      <c r="B241" s="42"/>
+      <c r="C241" s="77"/>
+      <c r="D241" s="77"/>
+      <c r="E241" s="77"/>
+      <c r="F241" s="43"/>
     </row>
     <row r="242" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="46"/>
-      <c r="C242" s="85"/>
-      <c r="D242" s="85"/>
-      <c r="E242" s="85"/>
-      <c r="F242" s="47"/>
+      <c r="B242" s="42"/>
+      <c r="C242" s="77"/>
+      <c r="D242" s="77"/>
+      <c r="E242" s="77"/>
+      <c r="F242" s="43"/>
     </row>
     <row r="243" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="46"/>
-      <c r="C243" s="85"/>
-      <c r="D243" s="85"/>
-      <c r="E243" s="85"/>
-      <c r="F243" s="47"/>
+      <c r="B243" s="42"/>
+      <c r="C243" s="77"/>
+      <c r="D243" s="77"/>
+      <c r="E243" s="77"/>
+      <c r="F243" s="43"/>
     </row>
     <row r="244" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="86"/>
-      <c r="C244" s="87"/>
-      <c r="D244" s="87"/>
-      <c r="E244" s="87"/>
-      <c r="F244" s="88"/>
+      <c r="B244" s="78"/>
+      <c r="C244" s="79"/>
+      <c r="D244" s="79"/>
+      <c r="E244" s="79"/>
+      <c r="F244" s="80"/>
     </row>
     <row r="245" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C245" s="62"/>
-      <c r="D245" s="63"/>
-      <c r="E245" s="64"/>
-      <c r="F245" s="65"/>
+      <c r="B245" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C245" s="66"/>
+      <c r="D245" s="70"/>
+      <c r="E245" s="71"/>
+      <c r="F245" s="72"/>
     </row>
     <row r="248" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="249" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C249" s="62"/>
-      <c r="D249" s="63"/>
-      <c r="E249" s="64"/>
-      <c r="F249" s="65"/>
+      <c r="B249" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C249" s="66"/>
+      <c r="D249" s="70"/>
+      <c r="E249" s="71"/>
+      <c r="F249" s="72"/>
     </row>
     <row r="250" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="56"/>
-      <c r="C250" s="56"/>
-      <c r="D250" s="56"/>
-      <c r="E250" s="56"/>
-      <c r="F250" s="56"/>
+      <c r="B250" s="57"/>
+      <c r="C250" s="57"/>
+      <c r="D250" s="57"/>
+      <c r="E250" s="57"/>
+      <c r="F250" s="57"/>
     </row>
     <row r="251" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="56"/>
-      <c r="C251" s="56"/>
-      <c r="D251" s="56"/>
-      <c r="E251" s="56"/>
-      <c r="F251" s="56"/>
+      <c r="B251" s="57"/>
+      <c r="C251" s="57"/>
+      <c r="D251" s="57"/>
+      <c r="E251" s="57"/>
+      <c r="F251" s="57"/>
     </row>
     <row r="252" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B252" s="56"/>
-      <c r="C252" s="56"/>
-      <c r="D252" s="56"/>
-      <c r="E252" s="56"/>
-      <c r="F252" s="56"/>
+      <c r="B252" s="57"/>
+      <c r="C252" s="57"/>
+      <c r="D252" s="57"/>
+      <c r="E252" s="57"/>
+      <c r="F252" s="57"/>
     </row>
     <row r="253" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="56"/>
-      <c r="C253" s="56"/>
-      <c r="D253" s="56"/>
-      <c r="E253" s="56"/>
-      <c r="F253" s="56"/>
+      <c r="B253" s="57"/>
+      <c r="C253" s="57"/>
+      <c r="D253" s="57"/>
+      <c r="E253" s="57"/>
+      <c r="F253" s="57"/>
     </row>
     <row r="254" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="56"/>
-      <c r="C254" s="56"/>
-      <c r="D254" s="56"/>
-      <c r="E254" s="56"/>
-      <c r="F254" s="56"/>
+      <c r="B254" s="57"/>
+      <c r="C254" s="57"/>
+      <c r="D254" s="57"/>
+      <c r="E254" s="57"/>
+      <c r="F254" s="57"/>
     </row>
     <row r="255" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="56"/>
-      <c r="C255" s="56"/>
-      <c r="D255" s="56"/>
-      <c r="E255" s="56"/>
-      <c r="F255" s="56"/>
+      <c r="B255" s="57"/>
+      <c r="C255" s="57"/>
+      <c r="D255" s="57"/>
+      <c r="E255" s="57"/>
+      <c r="F255" s="57"/>
     </row>
     <row r="256" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="56"/>
-      <c r="C256" s="56"/>
-      <c r="D256" s="56"/>
-      <c r="E256" s="56"/>
-      <c r="F256" s="56"/>
+      <c r="B256" s="57"/>
+      <c r="C256" s="57"/>
+      <c r="D256" s="57"/>
+      <c r="E256" s="57"/>
+      <c r="F256" s="57"/>
     </row>
     <row r="258" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C259" s="62"/>
-      <c r="D259" s="63"/>
-      <c r="E259" s="64"/>
-      <c r="F259" s="65"/>
+      <c r="B259" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C259" s="66"/>
+      <c r="D259" s="70"/>
+      <c r="E259" s="71"/>
+      <c r="F259" s="72"/>
     </row>
     <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="56"/>
-      <c r="C260" s="56"/>
-      <c r="D260" s="56"/>
-      <c r="E260" s="56"/>
-      <c r="F260" s="56"/>
+      <c r="B260" s="57"/>
+      <c r="C260" s="57"/>
+      <c r="D260" s="57"/>
+      <c r="E260" s="57"/>
+      <c r="F260" s="57"/>
     </row>
     <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="56"/>
-      <c r="C261" s="56"/>
-      <c r="D261" s="56"/>
-      <c r="E261" s="56"/>
-      <c r="F261" s="56"/>
+      <c r="B261" s="57"/>
+      <c r="C261" s="57"/>
+      <c r="D261" s="57"/>
+      <c r="E261" s="57"/>
+      <c r="F261" s="57"/>
     </row>
     <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="56"/>
-      <c r="C262" s="56"/>
-      <c r="D262" s="56"/>
-      <c r="E262" s="56"/>
-      <c r="F262" s="56"/>
+      <c r="B262" s="57"/>
+      <c r="C262" s="57"/>
+      <c r="D262" s="57"/>
+      <c r="E262" s="57"/>
+      <c r="F262" s="57"/>
     </row>
     <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="56"/>
-      <c r="C263" s="56"/>
-      <c r="D263" s="56"/>
-      <c r="E263" s="56"/>
-      <c r="F263" s="56"/>
+      <c r="B263" s="57"/>
+      <c r="C263" s="57"/>
+      <c r="D263" s="57"/>
+      <c r="E263" s="57"/>
+      <c r="F263" s="57"/>
     </row>
     <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="56"/>
-      <c r="C264" s="56"/>
-      <c r="D264" s="56"/>
-      <c r="E264" s="56"/>
-      <c r="F264" s="56"/>
+      <c r="B264" s="57"/>
+      <c r="C264" s="57"/>
+      <c r="D264" s="57"/>
+      <c r="E264" s="57"/>
+      <c r="F264" s="57"/>
     </row>
     <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="56"/>
-      <c r="C265" s="56"/>
-      <c r="D265" s="56"/>
-      <c r="E265" s="56"/>
-      <c r="F265" s="56"/>
+      <c r="B265" s="57"/>
+      <c r="C265" s="57"/>
+      <c r="D265" s="57"/>
+      <c r="E265" s="57"/>
+      <c r="F265" s="57"/>
     </row>
     <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="56"/>
-      <c r="C266" s="56"/>
-      <c r="D266" s="56"/>
-      <c r="E266" s="56"/>
-      <c r="F266" s="56"/>
+      <c r="B266" s="57"/>
+      <c r="C266" s="57"/>
+      <c r="D266" s="57"/>
+      <c r="E266" s="57"/>
+      <c r="F266" s="57"/>
     </row>
     <row r="268" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C269" s="62"/>
-      <c r="D269" s="63"/>
-      <c r="E269" s="64"/>
-      <c r="F269" s="65"/>
+      <c r="B269" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C269" s="66"/>
+      <c r="D269" s="70"/>
+      <c r="E269" s="71"/>
+      <c r="F269" s="72"/>
     </row>
     <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C270" s="62"/>
-      <c r="D270" s="63"/>
-      <c r="E270" s="64"/>
-      <c r="F270" s="65"/>
+      <c r="B270" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C270" s="66"/>
+      <c r="D270" s="70"/>
+      <c r="E270" s="71"/>
+      <c r="F270" s="72"/>
     </row>
     <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="56"/>
-      <c r="C271" s="56"/>
-      <c r="D271" s="56"/>
-      <c r="E271" s="56"/>
-      <c r="F271" s="56"/>
+      <c r="B271" s="57"/>
+      <c r="C271" s="57"/>
+      <c r="D271" s="57"/>
+      <c r="E271" s="57"/>
+      <c r="F271" s="57"/>
     </row>
     <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="56"/>
-      <c r="C272" s="56"/>
-      <c r="D272" s="56"/>
-      <c r="E272" s="56"/>
-      <c r="F272" s="56"/>
+      <c r="B272" s="57"/>
+      <c r="C272" s="57"/>
+      <c r="D272" s="57"/>
+      <c r="E272" s="57"/>
+      <c r="F272" s="57"/>
     </row>
     <row r="273" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="56"/>
-      <c r="C273" s="56"/>
-      <c r="D273" s="56"/>
-      <c r="E273" s="56"/>
-      <c r="F273" s="56"/>
+      <c r="B273" s="57"/>
+      <c r="C273" s="57"/>
+      <c r="D273" s="57"/>
+      <c r="E273" s="57"/>
+      <c r="F273" s="57"/>
     </row>
     <row r="274" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="56"/>
-      <c r="C274" s="56"/>
-      <c r="D274" s="56"/>
-      <c r="E274" s="56"/>
-      <c r="F274" s="56"/>
+      <c r="B274" s="57"/>
+      <c r="C274" s="57"/>
+      <c r="D274" s="57"/>
+      <c r="E274" s="57"/>
+      <c r="F274" s="57"/>
     </row>
     <row r="275" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="56"/>
-      <c r="C275" s="56"/>
-      <c r="D275" s="56"/>
-      <c r="E275" s="56"/>
-      <c r="F275" s="56"/>
+      <c r="B275" s="57"/>
+      <c r="C275" s="57"/>
+      <c r="D275" s="57"/>
+      <c r="E275" s="57"/>
+      <c r="F275" s="57"/>
     </row>
     <row r="276" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="56"/>
-      <c r="C276" s="56"/>
-      <c r="D276" s="56"/>
-      <c r="E276" s="56"/>
-      <c r="F276" s="56"/>
+      <c r="B276" s="57"/>
+      <c r="C276" s="57"/>
+      <c r="D276" s="57"/>
+      <c r="E276" s="57"/>
+      <c r="F276" s="57"/>
     </row>
     <row r="277" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="56"/>
-      <c r="C277" s="56"/>
-      <c r="D277" s="56"/>
-      <c r="E277" s="56"/>
-      <c r="F277" s="56"/>
+      <c r="B277" s="57"/>
+      <c r="C277" s="57"/>
+      <c r="D277" s="57"/>
+      <c r="E277" s="57"/>
+      <c r="F277" s="57"/>
     </row>
     <row r="281" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4063,159 +4008,133 @@
         <v>22</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D283" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="E283" s="60"/>
+        <v>94</v>
+      </c>
+      <c r="D283" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E283" s="91"/>
       <c r="F283" s="20" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G283" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="21" t="s">
-        <v>37</v>
-      </c>
+      <c r="A284" s="21"/>
       <c r="B284" s="21"/>
       <c r="C284" s="22"/>
-      <c r="D284" s="58"/>
-      <c r="E284" s="59"/>
+      <c r="D284" s="53"/>
+      <c r="E284" s="54"/>
       <c r="F284" s="21"/>
       <c r="G284" s="21"/>
     </row>
     <row r="285" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="21" t="s">
-        <v>38</v>
-      </c>
+      <c r="A285" s="21"/>
       <c r="B285" s="21"/>
       <c r="C285" s="22"/>
-      <c r="D285" s="58"/>
-      <c r="E285" s="59"/>
+      <c r="D285" s="53"/>
+      <c r="E285" s="54"/>
       <c r="F285" s="21"/>
       <c r="G285" s="21"/>
     </row>
     <row r="286" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="21" t="s">
-        <v>39</v>
-      </c>
+      <c r="A286" s="21"/>
       <c r="B286" s="21"/>
       <c r="C286" s="22"/>
-      <c r="D286" s="58"/>
-      <c r="E286" s="59"/>
+      <c r="D286" s="53"/>
+      <c r="E286" s="54"/>
       <c r="F286" s="21"/>
       <c r="G286" s="21"/>
     </row>
     <row r="287" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="21" t="s">
-        <v>40</v>
-      </c>
+      <c r="A287" s="21"/>
       <c r="B287" s="21"/>
       <c r="C287" s="22"/>
-      <c r="D287" s="58"/>
-      <c r="E287" s="59"/>
+      <c r="D287" s="53"/>
+      <c r="E287" s="54"/>
       <c r="F287" s="21"/>
       <c r="G287" s="21"/>
     </row>
     <row r="288" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="21" t="s">
-        <v>42</v>
-      </c>
+      <c r="A288" s="21"/>
       <c r="B288" s="21"/>
       <c r="C288" s="22"/>
-      <c r="D288" s="58"/>
-      <c r="E288" s="59"/>
+      <c r="D288" s="53"/>
+      <c r="E288" s="54"/>
       <c r="F288" s="21"/>
       <c r="G288" s="21"/>
     </row>
     <row r="289" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="21" t="s">
-        <v>43</v>
-      </c>
+      <c r="A289" s="21"/>
       <c r="B289" s="21"/>
       <c r="C289" s="22"/>
-      <c r="D289" s="58"/>
-      <c r="E289" s="59"/>
+      <c r="D289" s="53"/>
+      <c r="E289" s="54"/>
       <c r="F289" s="21"/>
       <c r="G289" s="21"/>
     </row>
     <row r="290" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="A290" s="21"/>
       <c r="B290" s="21"/>
       <c r="C290" s="22"/>
-      <c r="D290" s="58"/>
-      <c r="E290" s="59"/>
+      <c r="D290" s="53"/>
+      <c r="E290" s="54"/>
       <c r="F290" s="21"/>
       <c r="G290" s="21"/>
     </row>
     <row r="291" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="A291" s="21"/>
       <c r="B291" s="21"/>
       <c r="C291" s="22"/>
-      <c r="D291" s="58"/>
-      <c r="E291" s="59"/>
+      <c r="D291" s="53"/>
+      <c r="E291" s="54"/>
       <c r="F291" s="21"/>
       <c r="G291" s="21"/>
     </row>
     <row r="292" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="21" t="s">
-        <v>46</v>
-      </c>
+      <c r="A292" s="21"/>
       <c r="B292" s="21"/>
       <c r="C292" s="22"/>
-      <c r="D292" s="58"/>
-      <c r="E292" s="59"/>
+      <c r="D292" s="53"/>
+      <c r="E292" s="54"/>
       <c r="F292" s="21"/>
       <c r="G292" s="21"/>
     </row>
     <row r="293" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="21" t="s">
-        <v>47</v>
-      </c>
+      <c r="A293" s="21"/>
       <c r="B293" s="21"/>
       <c r="C293" s="22"/>
-      <c r="D293" s="58"/>
-      <c r="E293" s="59"/>
+      <c r="D293" s="53"/>
+      <c r="E293" s="54"/>
       <c r="F293" s="21"/>
       <c r="G293" s="21"/>
     </row>
     <row r="294" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="21" t="s">
-        <v>48</v>
-      </c>
+      <c r="A294" s="21"/>
       <c r="B294" s="21"/>
       <c r="C294" s="22"/>
-      <c r="D294" s="58"/>
-      <c r="E294" s="59"/>
+      <c r="D294" s="53"/>
+      <c r="E294" s="54"/>
       <c r="F294" s="21"/>
       <c r="G294" s="21"/>
     </row>
     <row r="295" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="21" t="s">
-        <v>49</v>
-      </c>
+      <c r="A295" s="21"/>
       <c r="B295" s="21"/>
       <c r="C295" s="22"/>
-      <c r="D295" s="58"/>
-      <c r="E295" s="59"/>
+      <c r="D295" s="53"/>
+      <c r="E295" s="54"/>
       <c r="F295" s="21"/>
       <c r="G295" s="21"/>
     </row>
     <row r="296" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="21" t="s">
-        <v>50</v>
-      </c>
+      <c r="A296" s="21"/>
       <c r="B296" s="21"/>
       <c r="C296" s="22"/>
-      <c r="D296" s="58"/>
-      <c r="E296" s="59"/>
+      <c r="D296" s="53"/>
+      <c r="E296" s="54"/>
       <c r="F296" s="21"/>
       <c r="G296" s="21"/>
     </row>
@@ -4223,89 +4142,259 @@
       <c r="A297" s="21"/>
       <c r="B297" s="21"/>
       <c r="C297" s="22"/>
-      <c r="D297" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E297" s="59"/>
+      <c r="D297" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E297" s="54"/>
       <c r="F297" s="21"/>
       <c r="G297" s="21"/>
     </row>
     <row r="342" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="344" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B345" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="C345" s="66"/>
-      <c r="D345" s="66"/>
-      <c r="E345" s="66"/>
-      <c r="F345" s="66"/>
+      <c r="B345" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C345" s="92"/>
+      <c r="D345" s="92"/>
+      <c r="E345" s="92"/>
+      <c r="F345" s="92"/>
     </row>
     <row r="347" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B347" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C347" s="53"/>
-      <c r="D347" s="53"/>
-      <c r="E347" s="53"/>
-      <c r="F347" s="54"/>
+      <c r="B347" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C347" s="89"/>
+      <c r="D347" s="89"/>
+      <c r="E347" s="89"/>
+      <c r="F347" s="90"/>
     </row>
     <row r="348" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B348" s="56"/>
-      <c r="C348" s="56"/>
-      <c r="D348" s="56"/>
-      <c r="E348" s="56"/>
-      <c r="F348" s="56"/>
+      <c r="B348" s="57"/>
+      <c r="C348" s="57"/>
+      <c r="D348" s="57"/>
+      <c r="E348" s="57"/>
+      <c r="F348" s="57"/>
     </row>
     <row r="349" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B349" s="56"/>
-      <c r="C349" s="56"/>
-      <c r="D349" s="56"/>
-      <c r="E349" s="56"/>
-      <c r="F349" s="56"/>
+      <c r="B349" s="57"/>
+      <c r="C349" s="57"/>
+      <c r="D349" s="57"/>
+      <c r="E349" s="57"/>
+      <c r="F349" s="57"/>
     </row>
     <row r="352" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B352" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C352" s="53"/>
-      <c r="D352" s="53"/>
-      <c r="E352" s="53"/>
-      <c r="F352" s="54"/>
+      <c r="B352" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C352" s="89"/>
+      <c r="D352" s="89"/>
+      <c r="E352" s="89"/>
+      <c r="F352" s="90"/>
     </row>
     <row r="353" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B353" s="52" t="s">
+      <c r="B353" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C353" s="53"/>
-      <c r="D353" s="53"/>
-      <c r="E353" s="53"/>
-      <c r="F353" s="54"/>
+      <c r="C353" s="89"/>
+      <c r="D353" s="89"/>
+      <c r="E353" s="89"/>
+      <c r="F353" s="90"/>
     </row>
     <row r="354" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B354" s="52"/>
-      <c r="C354" s="53"/>
-      <c r="D354" s="53"/>
-      <c r="E354" s="53"/>
-      <c r="F354" s="54"/>
+      <c r="B354" s="88"/>
+      <c r="C354" s="89"/>
+      <c r="D354" s="89"/>
+      <c r="E354" s="89"/>
+      <c r="F354" s="90"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="214">
-    <mergeCell ref="D293:E293"/>
-    <mergeCell ref="D294:E294"/>
-    <mergeCell ref="D295:E295"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="D297:E297"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B198:F204"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="D245:F245"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="B174:F180"/>
+    <mergeCell ref="B115:F121"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B147:F153"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B160:F166"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B67:F73"/>
+    <mergeCell ref="B99:F105"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B83:F89"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="A38:C44"/>
+    <mergeCell ref="E38:G44"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="E50:G56"/>
+    <mergeCell ref="B271:F277"/>
+    <mergeCell ref="B260:F266"/>
+    <mergeCell ref="B250:F256"/>
+    <mergeCell ref="B238:F244"/>
+    <mergeCell ref="B227:F233"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="D270:F270"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D249:F249"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="D259:F259"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="D269:F269"/>
+    <mergeCell ref="D211:F211"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B131:F137"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="B186:F192"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
     <mergeCell ref="D286:E286"/>
     <mergeCell ref="D287:E287"/>
     <mergeCell ref="B29:D29"/>
@@ -4330,186 +4419,16 @@
     <mergeCell ref="E172:F172"/>
     <mergeCell ref="E159:F159"/>
     <mergeCell ref="B158:D158"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="D212:F212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="B186:F192"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B131:F137"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="A50:C56"/>
-    <mergeCell ref="E50:G56"/>
-    <mergeCell ref="B271:F277"/>
-    <mergeCell ref="B260:F266"/>
-    <mergeCell ref="B250:F256"/>
-    <mergeCell ref="B238:F244"/>
-    <mergeCell ref="B227:F233"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="D270:F270"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D249:F249"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="D259:F259"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="D269:F269"/>
-    <mergeCell ref="D211:F211"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="A38:C44"/>
-    <mergeCell ref="E38:G44"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B67:F73"/>
-    <mergeCell ref="B99:F105"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B83:F89"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B174:F180"/>
-    <mergeCell ref="B115:F121"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B147:F153"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B160:F166"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B198:F204"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B195:D195"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="D284:E284"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="D245:F245"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:F214"/>
-    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="D294:E294"/>
+    <mergeCell ref="D295:E295"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="D292:E292"/>
   </mergeCells>
   <pageMargins left="0.39370078740157" right="0.39370078740157" top="0.78740157480314998" bottom="0.51181102362205" header="0.31496062992126" footer="0.27559055118109999"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ERapp/static/KiFile.xlsx
+++ b/ERapp/static/KiFile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="100">
   <si>
     <t>Données générales</t>
   </si>
@@ -135,12 +135,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Salle de bain</t>
-  </si>
-  <si>
-    <t>Chambre 1</t>
   </si>
   <si>
     <t>RAPPORT D'AUDIT ENERGETIQUE</t>
@@ -748,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -766,12 +760,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -824,6 +812,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,16 +857,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -881,25 +869,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -972,7 +948,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1563,70 +1545,70 @@
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>31</v>
       </c>
       <c r="O2" s="34"/>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1642,16 +1624,16 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="17"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1667,16 +1649,16 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="26"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="24"/>
     </row>
     <row r="5" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1692,16 +1674,16 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
     </row>
     <row r="6" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1717,20 +1699,20 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17" t="s">
+      <c r="T6" s="15"/>
+      <c r="U6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="17"/>
+      <c r="W6" s="15"/>
     </row>
     <row r="7" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1746,16 +1728,16 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1771,18 +1753,16 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
     </row>
     <row r="9" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1798,18 +1778,16 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
     </row>
     <row r="10" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1825,16 +1803,16 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
     </row>
     <row r="11" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1850,16 +1828,16 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
     </row>
     <row r="12" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1875,16 +1853,16 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
     </row>
     <row r="13" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1900,22 +1878,22 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="17" t="s">
+      <c r="T13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="17" t="s">
+      <c r="U13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="17"/>
+      <c r="W13" s="15"/>
     </row>
     <row r="14" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1931,22 +1909,22 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="17" t="s">
+      <c r="T14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="17" t="s">
+      <c r="U14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="17"/>
+      <c r="W14" s="15"/>
     </row>
     <row r="15" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1962,16 +1940,16 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
     </row>
     <row r="16" spans="1:23" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1987,16 +1965,16 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="17" t="s">
+      <c r="T16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="U16" s="17" t="s">
+      <c r="U16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="V16" s="17" t="s">
+      <c r="V16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="W16" s="17"/>
+      <c r="W16" s="15"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -2017,7 +1995,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -2031,15 +2009,15 @@
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="A4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2063,77 +2041,77 @@
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="47"/>
+      <c r="B25" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="44"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="47"/>
+      <c r="E25" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="44"/>
     </row>
     <row r="26" spans="2:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
+      <c r="C26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
+      <c r="C28" s="40"/>
       <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
+      <c r="B37" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2173,2044 +2151,2044 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K354"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="0.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="0.42578125" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="14.28515625" style="4" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" style="4" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-    </row>
-    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+    </row>
+    <row r="25" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+    <row r="26" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-    </row>
-    <row r="25" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+    </row>
+    <row r="28" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="55" t="s">
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+    </row>
+    <row r="29" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-    </row>
-    <row r="28" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55" t="s">
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-    </row>
-    <row r="29" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="33" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
     </row>
     <row r="34" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
     </row>
     <row r="35" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
     </row>
     <row r="36" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
     </row>
     <row r="45" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="73"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="57"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="57"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="57"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="57"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
     </row>
     <row r="57" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+    </row>
+    <row r="61" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="78"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="80" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-    </row>
-    <row r="61" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="81" t="s">
+      <c r="C62" s="81"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="82"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-    </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="84" t="s">
+      <c r="C63" s="78"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="85"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-    </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="81" t="s">
+      <c r="C64" s="78"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="82"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-    </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="81" t="s">
+      <c r="C65" s="78"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-    </row>
-    <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-    </row>
-    <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
     </row>
     <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
     </row>
     <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
     </row>
     <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
     </row>
     <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
     </row>
     <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="57"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
     </row>
     <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
     </row>
     <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="57"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
     </row>
     <row r="74" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
     </row>
     <row r="77" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="67" t="s">
+      <c r="B77" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+    </row>
+    <row r="78" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
+    </row>
+    <row r="79" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-    </row>
-    <row r="78" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="67" t="s">
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52"/>
+    </row>
+    <row r="80" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="67"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="58"/>
-    </row>
-    <row r="79" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="67" t="s">
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52"/>
+    </row>
+    <row r="81" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-    </row>
-    <row r="80" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="67" t="s">
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
+    </row>
+    <row r="82" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
-    </row>
-    <row r="81" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-    </row>
-    <row r="82" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" s="82"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
     </row>
     <row r="83" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="57"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
     </row>
     <row r="84" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
     </row>
     <row r="85" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="57"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
     </row>
     <row r="86" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
     </row>
     <row r="87" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="57"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
     </row>
     <row r="88" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
     </row>
     <row r="89" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
     </row>
     <row r="90" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+    </row>
+    <row r="92" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="56"/>
+    </row>
+    <row r="93" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="61"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="58"/>
+    </row>
+    <row r="94" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="61"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="58"/>
+    </row>
+    <row r="95" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="61"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="58"/>
+    </row>
+    <row r="96" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="54"/>
+    </row>
+    <row r="97" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-    </row>
-    <row r="92" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="62"/>
-    </row>
-    <row r="93" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="64"/>
-    </row>
-    <row r="94" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" s="67"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="64"/>
-    </row>
-    <row r="95" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="67" t="s">
+      <c r="C97" s="61"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="54"/>
+    </row>
+    <row r="98" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C95" s="67"/>
-      <c r="D95" s="67"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="64"/>
-    </row>
-    <row r="96" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" s="67"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="60"/>
-    </row>
-    <row r="97" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="C97" s="67"/>
-      <c r="D97" s="67"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="60"/>
-    </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C98" s="82"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="58"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
     </row>
     <row r="99" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="57"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="57"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
     </row>
     <row r="100" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="57"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
     </row>
     <row r="101" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
     </row>
     <row r="102" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="57"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
     </row>
     <row r="103" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="57"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
     </row>
     <row r="104" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
     </row>
     <row r="105" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
     </row>
     <row r="106" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="50"/>
+    </row>
+    <row r="108" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" s="61"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F108" s="56"/>
+    </row>
+    <row r="109" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" s="61"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F109" s="58"/>
+    </row>
+    <row r="110" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" s="61"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F110" s="58"/>
+    </row>
+    <row r="111" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="61"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="58"/>
+    </row>
+    <row r="112" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F112" s="54"/>
+    </row>
+    <row r="113" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="61"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="53"/>
+      <c r="F113" s="54"/>
+    </row>
+    <row r="114" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" s="78"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52"/>
+    </row>
+    <row r="115" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="83"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="83"/>
+    </row>
+    <row r="116" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="83"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="83"/>
+      <c r="E116" s="83"/>
+      <c r="F116" s="83"/>
+    </row>
+    <row r="117" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="83"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="83"/>
+      <c r="E117" s="83"/>
+      <c r="F117" s="83"/>
+    </row>
+    <row r="118" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="83"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="83"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="83"/>
+    </row>
+    <row r="119" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="83"/>
+      <c r="C119" s="83"/>
+      <c r="D119" s="83"/>
+      <c r="E119" s="83"/>
+      <c r="F119" s="83"/>
+    </row>
+    <row r="120" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="83"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="83"/>
+      <c r="E120" s="83"/>
+      <c r="F120" s="83"/>
+    </row>
+    <row r="121" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="83"/>
+      <c r="C121" s="83"/>
+      <c r="D121" s="83"/>
+      <c r="E121" s="83"/>
+      <c r="F121" s="83"/>
+    </row>
+    <row r="123" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C107" s="56"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-    </row>
-    <row r="108" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" s="67"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="61" t="s">
+      <c r="C123" s="50"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="50"/>
+    </row>
+    <row r="124" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="F108" s="62"/>
-    </row>
-    <row r="109" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="67" t="s">
+      <c r="C124" s="61"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="55"/>
+      <c r="F124" s="56"/>
+    </row>
+    <row r="125" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" s="61"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="58"/>
+    </row>
+    <row r="126" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="67"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="63" t="s">
+      <c r="C126" s="61"/>
+      <c r="D126" s="61"/>
+      <c r="E126" s="57"/>
+      <c r="F126" s="58"/>
+    </row>
+    <row r="127" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" s="61"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="57"/>
+      <c r="F127" s="58"/>
+    </row>
+    <row r="128" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="61"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="53"/>
+      <c r="F128" s="54"/>
+    </row>
+    <row r="129" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C129" s="61"/>
+      <c r="D129" s="61"/>
+      <c r="E129" s="53"/>
+      <c r="F129" s="54"/>
+    </row>
+    <row r="130" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C130" s="78"/>
+      <c r="D130" s="79"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="52"/>
+    </row>
+    <row r="131" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="51"/>
+      <c r="C131" s="51"/>
+      <c r="D131" s="51"/>
+      <c r="E131" s="51"/>
+      <c r="F131" s="51"/>
+    </row>
+    <row r="132" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="51"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="51"/>
+      <c r="F132" s="51"/>
+    </row>
+    <row r="133" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="51"/>
+      <c r="C133" s="51"/>
+      <c r="D133" s="51"/>
+      <c r="E133" s="51"/>
+      <c r="F133" s="51"/>
+    </row>
+    <row r="134" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="51"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="51"/>
+      <c r="E134" s="51"/>
+      <c r="F134" s="51"/>
+    </row>
+    <row r="135" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="51"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="51"/>
+      <c r="F135" s="51"/>
+    </row>
+    <row r="136" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="51"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="51"/>
+      <c r="F136" s="51"/>
+    </row>
+    <row r="137" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="51"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="51"/>
+      <c r="E137" s="51"/>
+      <c r="F137" s="51"/>
+    </row>
+    <row r="139" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C139" s="50"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="50"/>
+      <c r="F139" s="50"/>
+    </row>
+    <row r="140" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="F109" s="64"/>
-    </row>
-    <row r="110" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="67" t="s">
+      <c r="C140" s="61"/>
+      <c r="D140" s="61"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="56"/>
+    </row>
+    <row r="141" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" s="61"/>
+      <c r="D141" s="61"/>
+      <c r="E141" s="57"/>
+      <c r="F141" s="58"/>
+    </row>
+    <row r="142" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142" s="61"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="57"/>
+      <c r="F142" s="58"/>
+    </row>
+    <row r="143" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C143" s="61"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="58"/>
+    </row>
+    <row r="144" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C110" s="67"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="F110" s="64"/>
-    </row>
-    <row r="111" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="67" t="s">
+      <c r="C144" s="61"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="53"/>
+      <c r="F144" s="54"/>
+    </row>
+    <row r="145" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" s="61"/>
+      <c r="D145" s="61"/>
+      <c r="E145" s="53"/>
+      <c r="F145" s="54"/>
+    </row>
+    <row r="146" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="64"/>
-    </row>
-    <row r="112" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F112" s="60"/>
-    </row>
-    <row r="113" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="60"/>
-    </row>
-    <row r="114" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C114" s="82"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="58"/>
-      <c r="F114" s="58"/>
-    </row>
-    <row r="115" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="87"/>
-      <c r="C115" s="87"/>
-      <c r="D115" s="87"/>
-      <c r="E115" s="87"/>
-      <c r="F115" s="87"/>
-    </row>
-    <row r="116" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="87"/>
-      <c r="C116" s="87"/>
-      <c r="D116" s="87"/>
-      <c r="E116" s="87"/>
-      <c r="F116" s="87"/>
-    </row>
-    <row r="117" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="87"/>
-      <c r="C117" s="87"/>
-      <c r="D117" s="87"/>
-      <c r="E117" s="87"/>
-      <c r="F117" s="87"/>
-    </row>
-    <row r="118" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="87"/>
-      <c r="C118" s="87"/>
-      <c r="D118" s="87"/>
-      <c r="E118" s="87"/>
-      <c r="F118" s="87"/>
-    </row>
-    <row r="119" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="87"/>
-      <c r="C119" s="87"/>
-      <c r="D119" s="87"/>
-      <c r="E119" s="87"/>
-      <c r="F119" s="87"/>
-    </row>
-    <row r="120" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="87"/>
-      <c r="C120" s="87"/>
-      <c r="D120" s="87"/>
-      <c r="E120" s="87"/>
-      <c r="F120" s="87"/>
-    </row>
-    <row r="121" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="87"/>
-      <c r="C121" s="87"/>
-      <c r="D121" s="87"/>
-      <c r="E121" s="87"/>
-      <c r="F121" s="87"/>
-    </row>
-    <row r="123" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C123" s="56"/>
-      <c r="D123" s="56"/>
-      <c r="E123" s="56"/>
-      <c r="F123" s="56"/>
-    </row>
-    <row r="124" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="67" t="s">
+      <c r="C146" s="78"/>
+      <c r="D146" s="79"/>
+      <c r="E146" s="52"/>
+      <c r="F146" s="52"/>
+    </row>
+    <row r="147" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="51"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="51"/>
+      <c r="E147" s="51"/>
+      <c r="F147" s="51"/>
+    </row>
+    <row r="148" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="51"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="51"/>
+      <c r="F148" s="51"/>
+    </row>
+    <row r="149" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="51"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="51"/>
+      <c r="E149" s="51"/>
+      <c r="F149" s="51"/>
+    </row>
+    <row r="150" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="51"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="51"/>
+      <c r="F150" s="51"/>
+    </row>
+    <row r="151" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="51"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="51"/>
+      <c r="F151" s="51"/>
+    </row>
+    <row r="152" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="51"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="51"/>
+    </row>
+    <row r="153" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="51"/>
+      <c r="C153" s="51"/>
+      <c r="D153" s="51"/>
+      <c r="E153" s="51"/>
+      <c r="F153" s="51"/>
+    </row>
+    <row r="155" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C124" s="67"/>
-      <c r="D124" s="67"/>
-      <c r="E124" s="61"/>
-      <c r="F124" s="62"/>
-    </row>
-    <row r="125" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C125" s="67"/>
-      <c r="D125" s="67"/>
-      <c r="E125" s="63"/>
-      <c r="F125" s="64"/>
-    </row>
-    <row r="126" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="C126" s="67"/>
-      <c r="D126" s="67"/>
-      <c r="E126" s="63"/>
-      <c r="F126" s="64"/>
-    </row>
-    <row r="127" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="63"/>
-      <c r="F127" s="64"/>
-    </row>
-    <row r="128" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C128" s="67"/>
-      <c r="D128" s="67"/>
-      <c r="E128" s="59"/>
-      <c r="F128" s="60"/>
-    </row>
-    <row r="129" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="60"/>
-    </row>
-    <row r="130" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C130" s="82"/>
-      <c r="D130" s="83"/>
-      <c r="E130" s="58"/>
-      <c r="F130" s="58"/>
-    </row>
-    <row r="131" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="57"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="57"/>
-    </row>
-    <row r="132" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="57"/>
-      <c r="C132" s="57"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="57"/>
-      <c r="F132" s="57"/>
-    </row>
-    <row r="133" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="57"/>
-      <c r="C133" s="57"/>
-      <c r="D133" s="57"/>
-      <c r="E133" s="57"/>
-      <c r="F133" s="57"/>
-    </row>
-    <row r="134" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="57"/>
-      <c r="C134" s="57"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="57"/>
-      <c r="F134" s="57"/>
-    </row>
-    <row r="135" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="57"/>
-      <c r="C135" s="57"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="57"/>
-      <c r="F135" s="57"/>
-    </row>
-    <row r="136" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="57"/>
-      <c r="C136" s="57"/>
-      <c r="D136" s="57"/>
-      <c r="E136" s="57"/>
-      <c r="F136" s="57"/>
-    </row>
-    <row r="137" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="57"/>
-      <c r="C137" s="57"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57"/>
-    </row>
-    <row r="139" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="56" t="s">
+      <c r="C155" s="50"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="50"/>
+    </row>
+    <row r="156" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C156" s="61"/>
+      <c r="D156" s="61"/>
+      <c r="E156" s="55"/>
+      <c r="F156" s="56"/>
+    </row>
+    <row r="157" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C139" s="56"/>
-      <c r="D139" s="56"/>
-      <c r="E139" s="56"/>
-      <c r="F139" s="56"/>
-    </row>
-    <row r="140" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C140" s="67"/>
-      <c r="D140" s="67"/>
-      <c r="E140" s="61"/>
-      <c r="F140" s="62"/>
-    </row>
-    <row r="141" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C141" s="67"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="63"/>
-      <c r="F141" s="64"/>
-    </row>
-    <row r="142" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="C142" s="67"/>
-      <c r="D142" s="67"/>
-      <c r="E142" s="63"/>
-      <c r="F142" s="64"/>
-    </row>
-    <row r="143" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C143" s="67"/>
-      <c r="D143" s="67"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="64"/>
-    </row>
-    <row r="144" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C144" s="67"/>
-      <c r="D144" s="67"/>
-      <c r="E144" s="59"/>
-      <c r="F144" s="60"/>
-    </row>
-    <row r="145" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="C145" s="67"/>
-      <c r="D145" s="67"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="60"/>
-    </row>
-    <row r="146" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C146" s="82"/>
-      <c r="D146" s="83"/>
-      <c r="E146" s="58"/>
-      <c r="F146" s="58"/>
-    </row>
-    <row r="147" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="57"/>
-      <c r="C147" s="57"/>
-      <c r="D147" s="57"/>
-      <c r="E147" s="57"/>
-      <c r="F147" s="57"/>
-    </row>
-    <row r="148" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="57"/>
-      <c r="C148" s="57"/>
-      <c r="D148" s="57"/>
-      <c r="E148" s="57"/>
-      <c r="F148" s="57"/>
-    </row>
-    <row r="149" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="57"/>
-      <c r="C149" s="57"/>
-      <c r="D149" s="57"/>
-      <c r="E149" s="57"/>
-      <c r="F149" s="57"/>
-    </row>
-    <row r="150" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="57"/>
-      <c r="C150" s="57"/>
-      <c r="D150" s="57"/>
-      <c r="E150" s="57"/>
-      <c r="F150" s="57"/>
-    </row>
-    <row r="151" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="57"/>
-      <c r="C151" s="57"/>
-      <c r="D151" s="57"/>
-      <c r="E151" s="57"/>
-      <c r="F151" s="57"/>
-    </row>
-    <row r="152" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="57"/>
-      <c r="C152" s="57"/>
-      <c r="D152" s="57"/>
-      <c r="E152" s="57"/>
-      <c r="F152" s="57"/>
-    </row>
-    <row r="153" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="57"/>
-      <c r="C153" s="57"/>
-      <c r="D153" s="57"/>
-      <c r="E153" s="57"/>
-      <c r="F153" s="57"/>
-    </row>
-    <row r="155" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="56" t="s">
+      <c r="C157" s="61"/>
+      <c r="D157" s="61"/>
+      <c r="E157" s="57"/>
+      <c r="F157" s="58"/>
+    </row>
+    <row r="158" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C155" s="56"/>
-      <c r="D155" s="56"/>
-      <c r="E155" s="56"/>
-      <c r="F155" s="56"/>
-    </row>
-    <row r="156" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C156" s="67"/>
-      <c r="D156" s="67"/>
-      <c r="E156" s="61"/>
-      <c r="F156" s="62"/>
-    </row>
-    <row r="157" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="67" t="s">
+      <c r="C158" s="61"/>
+      <c r="D158" s="61"/>
+      <c r="E158" s="57"/>
+      <c r="F158" s="58"/>
+    </row>
+    <row r="159" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C157" s="67"/>
-      <c r="D157" s="67"/>
-      <c r="E157" s="63"/>
-      <c r="F157" s="64"/>
-    </row>
-    <row r="158" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="67" t="s">
+      <c r="C159" s="61"/>
+      <c r="D159" s="61"/>
+      <c r="E159" s="53"/>
+      <c r="F159" s="54"/>
+    </row>
+    <row r="160" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="51"/>
+      <c r="C160" s="51"/>
+      <c r="D160" s="51"/>
+      <c r="E160" s="51"/>
+      <c r="F160" s="51"/>
+    </row>
+    <row r="161" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="51"/>
+      <c r="C161" s="51"/>
+      <c r="D161" s="51"/>
+      <c r="E161" s="51"/>
+      <c r="F161" s="51"/>
+    </row>
+    <row r="162" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="51"/>
+      <c r="C162" s="51"/>
+      <c r="D162" s="51"/>
+      <c r="E162" s="51"/>
+      <c r="F162" s="51"/>
+    </row>
+    <row r="163" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="51"/>
+      <c r="C163" s="51"/>
+      <c r="D163" s="51"/>
+      <c r="E163" s="51"/>
+      <c r="F163" s="51"/>
+    </row>
+    <row r="164" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="51"/>
+      <c r="C164" s="51"/>
+      <c r="D164" s="51"/>
+      <c r="E164" s="51"/>
+      <c r="F164" s="51"/>
+    </row>
+    <row r="165" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="51"/>
+      <c r="C165" s="51"/>
+      <c r="D165" s="51"/>
+      <c r="E165" s="51"/>
+      <c r="F165" s="51"/>
+    </row>
+    <row r="166" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="51"/>
+      <c r="C166" s="51"/>
+      <c r="D166" s="51"/>
+      <c r="E166" s="51"/>
+      <c r="F166" s="51"/>
+    </row>
+    <row r="169" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C158" s="67"/>
-      <c r="D158" s="67"/>
-      <c r="E158" s="63"/>
-      <c r="F158" s="64"/>
-    </row>
-    <row r="159" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C159" s="67"/>
-      <c r="D159" s="67"/>
-      <c r="E159" s="59"/>
-      <c r="F159" s="60"/>
-    </row>
-    <row r="160" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="57"/>
-      <c r="C160" s="57"/>
-      <c r="D160" s="57"/>
-      <c r="E160" s="57"/>
-      <c r="F160" s="57"/>
-    </row>
-    <row r="161" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="57"/>
-      <c r="C161" s="57"/>
-      <c r="D161" s="57"/>
-      <c r="E161" s="57"/>
-      <c r="F161" s="57"/>
-    </row>
-    <row r="162" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="57"/>
-      <c r="C162" s="57"/>
-      <c r="D162" s="57"/>
-      <c r="E162" s="57"/>
-      <c r="F162" s="57"/>
-    </row>
-    <row r="163" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="57"/>
-      <c r="C163" s="57"/>
-      <c r="D163" s="57"/>
-      <c r="E163" s="57"/>
-      <c r="F163" s="57"/>
-    </row>
-    <row r="164" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="57"/>
-      <c r="C164" s="57"/>
-      <c r="D164" s="57"/>
-      <c r="E164" s="57"/>
-      <c r="F164" s="57"/>
-    </row>
-    <row r="165" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="57"/>
-      <c r="C165" s="57"/>
-      <c r="D165" s="57"/>
-      <c r="E165" s="57"/>
-      <c r="F165" s="57"/>
-    </row>
-    <row r="166" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="57"/>
-      <c r="C166" s="57"/>
-      <c r="D166" s="57"/>
-      <c r="E166" s="57"/>
-      <c r="F166" s="57"/>
-    </row>
-    <row r="169" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C169" s="56"/>
-      <c r="D169" s="56"/>
-      <c r="E169" s="56"/>
-      <c r="F169" s="56"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="50"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="50"/>
     </row>
     <row r="170" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C170" s="67"/>
-      <c r="D170" s="67"/>
-      <c r="E170" s="58"/>
-      <c r="F170" s="58"/>
+      <c r="B170" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C170" s="61"/>
+      <c r="D170" s="61"/>
+      <c r="E170" s="52"/>
+      <c r="F170" s="52"/>
     </row>
     <row r="171" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="67" t="s">
+      <c r="B171" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C171" s="61"/>
+      <c r="D171" s="61"/>
+      <c r="E171" s="52"/>
+      <c r="F171" s="52"/>
+    </row>
+    <row r="172" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C172" s="61"/>
+      <c r="D172" s="61"/>
+      <c r="E172" s="52"/>
+      <c r="F172" s="52"/>
+    </row>
+    <row r="173" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C171" s="67"/>
-      <c r="D171" s="67"/>
-      <c r="E171" s="58"/>
-      <c r="F171" s="58"/>
-    </row>
-    <row r="172" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C172" s="67"/>
-      <c r="D172" s="67"/>
-      <c r="E172" s="58"/>
-      <c r="F172" s="58"/>
-    </row>
-    <row r="173" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C173" s="67"/>
-      <c r="D173" s="67"/>
-      <c r="E173" s="58"/>
-      <c r="F173" s="58"/>
+      <c r="C173" s="61"/>
+      <c r="D173" s="61"/>
+      <c r="E173" s="52"/>
+      <c r="F173" s="52"/>
     </row>
     <row r="174" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="57"/>
-      <c r="C174" s="57"/>
-      <c r="D174" s="57"/>
-      <c r="E174" s="57"/>
-      <c r="F174" s="57"/>
+      <c r="B174" s="51"/>
+      <c r="C174" s="51"/>
+      <c r="D174" s="51"/>
+      <c r="E174" s="51"/>
+      <c r="F174" s="51"/>
     </row>
     <row r="175" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="57"/>
-      <c r="C175" s="57"/>
-      <c r="D175" s="57"/>
-      <c r="E175" s="57"/>
-      <c r="F175" s="57"/>
+      <c r="B175" s="51"/>
+      <c r="C175" s="51"/>
+      <c r="D175" s="51"/>
+      <c r="E175" s="51"/>
+      <c r="F175" s="51"/>
     </row>
     <row r="176" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="57"/>
-      <c r="C176" s="57"/>
-      <c r="D176" s="57"/>
-      <c r="E176" s="57"/>
-      <c r="F176" s="57"/>
+      <c r="B176" s="51"/>
+      <c r="C176" s="51"/>
+      <c r="D176" s="51"/>
+      <c r="E176" s="51"/>
+      <c r="F176" s="51"/>
     </row>
     <row r="177" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="57"/>
-      <c r="C177" s="57"/>
-      <c r="D177" s="57"/>
-      <c r="E177" s="57"/>
-      <c r="F177" s="57"/>
+      <c r="B177" s="51"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="51"/>
+      <c r="E177" s="51"/>
+      <c r="F177" s="51"/>
     </row>
     <row r="178" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="57"/>
-      <c r="C178" s="57"/>
-      <c r="D178" s="57"/>
-      <c r="E178" s="57"/>
-      <c r="F178" s="57"/>
+      <c r="B178" s="51"/>
+      <c r="C178" s="51"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="51"/>
+      <c r="F178" s="51"/>
     </row>
     <row r="179" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="57"/>
-      <c r="C179" s="57"/>
-      <c r="D179" s="57"/>
-      <c r="E179" s="57"/>
-      <c r="F179" s="57"/>
+      <c r="B179" s="51"/>
+      <c r="C179" s="51"/>
+      <c r="D179" s="51"/>
+      <c r="E179" s="51"/>
+      <c r="F179" s="51"/>
     </row>
     <row r="180" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="57"/>
-      <c r="C180" s="57"/>
-      <c r="D180" s="57"/>
-      <c r="E180" s="57"/>
-      <c r="F180" s="57"/>
+      <c r="B180" s="51"/>
+      <c r="C180" s="51"/>
+      <c r="D180" s="51"/>
+      <c r="E180" s="51"/>
+      <c r="F180" s="51"/>
     </row>
     <row r="181" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="182" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C182" s="56"/>
-      <c r="D182" s="56"/>
-      <c r="E182" s="56"/>
-      <c r="F182" s="56"/>
+      <c r="B182" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C182" s="50"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="50"/>
+      <c r="F182" s="50"/>
     </row>
     <row r="183" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C183" s="67"/>
-      <c r="D183" s="67"/>
-      <c r="E183" s="61"/>
-      <c r="F183" s="62"/>
+      <c r="B183" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C183" s="61"/>
+      <c r="D183" s="61"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="56"/>
     </row>
     <row r="184" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C184" s="67"/>
-      <c r="D184" s="67"/>
-      <c r="E184" s="63"/>
-      <c r="F184" s="64"/>
+      <c r="B184" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C184" s="61"/>
+      <c r="D184" s="61"/>
+      <c r="E184" s="57"/>
+      <c r="F184" s="58"/>
     </row>
     <row r="185" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C185" s="67"/>
-      <c r="D185" s="67"/>
-      <c r="E185" s="59"/>
-      <c r="F185" s="60"/>
+      <c r="B185" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C185" s="61"/>
+      <c r="D185" s="61"/>
+      <c r="E185" s="53"/>
+      <c r="F185" s="54"/>
     </row>
     <row r="186" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="57"/>
-      <c r="C186" s="57"/>
-      <c r="D186" s="57"/>
-      <c r="E186" s="57"/>
-      <c r="F186" s="57"/>
+      <c r="B186" s="51"/>
+      <c r="C186" s="51"/>
+      <c r="D186" s="51"/>
+      <c r="E186" s="51"/>
+      <c r="F186" s="51"/>
     </row>
     <row r="187" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="57"/>
-      <c r="C187" s="57"/>
-      <c r="D187" s="57"/>
-      <c r="E187" s="57"/>
-      <c r="F187" s="57"/>
+      <c r="B187" s="51"/>
+      <c r="C187" s="51"/>
+      <c r="D187" s="51"/>
+      <c r="E187" s="51"/>
+      <c r="F187" s="51"/>
     </row>
     <row r="188" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="57"/>
-      <c r="C188" s="57"/>
-      <c r="D188" s="57"/>
-      <c r="E188" s="57"/>
-      <c r="F188" s="57"/>
+      <c r="B188" s="51"/>
+      <c r="C188" s="51"/>
+      <c r="D188" s="51"/>
+      <c r="E188" s="51"/>
+      <c r="F188" s="51"/>
     </row>
     <row r="189" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="57"/>
-      <c r="C189" s="57"/>
-      <c r="D189" s="57"/>
-      <c r="E189" s="57"/>
-      <c r="F189" s="57"/>
+      <c r="B189" s="51"/>
+      <c r="C189" s="51"/>
+      <c r="D189" s="51"/>
+      <c r="E189" s="51"/>
+      <c r="F189" s="51"/>
     </row>
     <row r="190" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="57"/>
-      <c r="C190" s="57"/>
-      <c r="D190" s="57"/>
-      <c r="E190" s="57"/>
-      <c r="F190" s="57"/>
+      <c r="B190" s="51"/>
+      <c r="C190" s="51"/>
+      <c r="D190" s="51"/>
+      <c r="E190" s="51"/>
+      <c r="F190" s="51"/>
     </row>
     <row r="191" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="57"/>
-      <c r="C191" s="57"/>
-      <c r="D191" s="57"/>
-      <c r="E191" s="57"/>
-      <c r="F191" s="57"/>
+      <c r="B191" s="51"/>
+      <c r="C191" s="51"/>
+      <c r="D191" s="51"/>
+      <c r="E191" s="51"/>
+      <c r="F191" s="51"/>
     </row>
     <row r="192" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="57"/>
-      <c r="C192" s="57"/>
-      <c r="D192" s="57"/>
-      <c r="E192" s="57"/>
-      <c r="F192" s="57"/>
+      <c r="B192" s="51"/>
+      <c r="C192" s="51"/>
+      <c r="D192" s="51"/>
+      <c r="E192" s="51"/>
+      <c r="F192" s="51"/>
     </row>
     <row r="193" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="194" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="56" t="s">
+      <c r="B194" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C194" s="50"/>
+      <c r="D194" s="50"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="50"/>
+    </row>
+    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C195" s="61"/>
+      <c r="D195" s="61"/>
+      <c r="E195" s="55"/>
+      <c r="F195" s="56"/>
+    </row>
+    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C196" s="61"/>
+      <c r="D196" s="61"/>
+      <c r="E196" s="57"/>
+      <c r="F196" s="58"/>
+    </row>
+    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C197" s="61"/>
+      <c r="D197" s="61"/>
+      <c r="E197" s="53"/>
+      <c r="F197" s="54"/>
+    </row>
+    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="51"/>
+      <c r="C198" s="51"/>
+      <c r="D198" s="51"/>
+      <c r="E198" s="51"/>
+      <c r="F198" s="51"/>
+    </row>
+    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="51"/>
+      <c r="C199" s="51"/>
+      <c r="D199" s="51"/>
+      <c r="E199" s="51"/>
+      <c r="F199" s="51"/>
+    </row>
+    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="51"/>
+      <c r="C200" s="51"/>
+      <c r="D200" s="51"/>
+      <c r="E200" s="51"/>
+      <c r="F200" s="51"/>
+    </row>
+    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="51"/>
+      <c r="C201" s="51"/>
+      <c r="D201" s="51"/>
+      <c r="E201" s="51"/>
+      <c r="F201" s="51"/>
+    </row>
+    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="51"/>
+      <c r="C202" s="51"/>
+      <c r="D202" s="51"/>
+      <c r="E202" s="51"/>
+      <c r="F202" s="51"/>
+    </row>
+    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="51"/>
+      <c r="C203" s="51"/>
+      <c r="D203" s="51"/>
+      <c r="E203" s="51"/>
+      <c r="F203" s="51"/>
+    </row>
+    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="51"/>
+      <c r="C204" s="51"/>
+      <c r="D204" s="51"/>
+      <c r="E204" s="51"/>
+      <c r="F204" s="51"/>
+    </row>
+    <row r="207" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C194" s="56"/>
-      <c r="D194" s="56"/>
-      <c r="E194" s="56"/>
-      <c r="F194" s="56"/>
-    </row>
-    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C195" s="67"/>
-      <c r="D195" s="67"/>
-      <c r="E195" s="61"/>
-      <c r="F195" s="62"/>
-    </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C196" s="67"/>
-      <c r="D196" s="67"/>
-      <c r="E196" s="63"/>
-      <c r="F196" s="64"/>
-    </row>
-    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C197" s="67"/>
-      <c r="D197" s="67"/>
-      <c r="E197" s="59"/>
-      <c r="F197" s="60"/>
-    </row>
-    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="57"/>
-      <c r="C198" s="57"/>
-      <c r="D198" s="57"/>
-      <c r="E198" s="57"/>
-      <c r="F198" s="57"/>
-    </row>
-    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="57"/>
-      <c r="C199" s="57"/>
-      <c r="D199" s="57"/>
-      <c r="E199" s="57"/>
-      <c r="F199" s="57"/>
-    </row>
-    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="57"/>
-      <c r="C200" s="57"/>
-      <c r="D200" s="57"/>
-      <c r="E200" s="57"/>
-      <c r="F200" s="57"/>
-    </row>
-    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="57"/>
-      <c r="C201" s="57"/>
-      <c r="D201" s="57"/>
-      <c r="E201" s="57"/>
-      <c r="F201" s="57"/>
-    </row>
-    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="57"/>
-      <c r="C202" s="57"/>
-      <c r="D202" s="57"/>
-      <c r="E202" s="57"/>
-      <c r="F202" s="57"/>
-    </row>
-    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="57"/>
-      <c r="C203" s="57"/>
-      <c r="D203" s="57"/>
-      <c r="E203" s="57"/>
-      <c r="F203" s="57"/>
-    </row>
-    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="57"/>
-      <c r="C204" s="57"/>
-      <c r="D204" s="57"/>
-      <c r="E204" s="57"/>
-      <c r="F204" s="57"/>
-    </row>
-    <row r="207" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="9" t="s">
+    </row>
+    <row r="209" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C209" s="60"/>
+      <c r="D209" s="64"/>
+      <c r="E209" s="65"/>
+      <c r="F209" s="66"/>
+    </row>
+    <row r="210" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="59" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="10" t="s">
+      <c r="C210" s="60"/>
+      <c r="D210" s="64"/>
+      <c r="E210" s="65"/>
+      <c r="F210" s="66"/>
+    </row>
+    <row r="211" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="59" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="209" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C209" s="66"/>
-      <c r="D209" s="70"/>
-      <c r="E209" s="71"/>
-      <c r="F209" s="72"/>
-    </row>
-    <row r="210" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="65" t="s">
+      <c r="C211" s="60"/>
+      <c r="D211" s="64"/>
+      <c r="E211" s="65"/>
+      <c r="F211" s="66"/>
+    </row>
+    <row r="212" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C210" s="66"/>
-      <c r="D210" s="70"/>
-      <c r="E210" s="71"/>
-      <c r="F210" s="72"/>
-    </row>
-    <row r="211" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="65" t="s">
+      <c r="C212" s="60"/>
+      <c r="D212" s="64"/>
+      <c r="E212" s="65"/>
+      <c r="F212" s="66"/>
+    </row>
+    <row r="213" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C211" s="66"/>
-      <c r="D211" s="70"/>
-      <c r="E211" s="71"/>
-      <c r="F211" s="72"/>
-    </row>
-    <row r="212" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="65" t="s">
+      <c r="C213" s="60"/>
+      <c r="D213" s="64"/>
+      <c r="E213" s="65"/>
+      <c r="F213" s="66"/>
+    </row>
+    <row r="214" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C212" s="66"/>
-      <c r="D212" s="70"/>
-      <c r="E212" s="71"/>
-      <c r="F212" s="72"/>
-    </row>
-    <row r="213" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="65" t="s">
+      <c r="C214" s="60"/>
+      <c r="D214" s="64"/>
+      <c r="E214" s="65"/>
+      <c r="F214" s="66"/>
+    </row>
+    <row r="215" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="51"/>
+      <c r="C215" s="51"/>
+      <c r="D215" s="51"/>
+      <c r="E215" s="51"/>
+      <c r="F215" s="51"/>
+    </row>
+    <row r="216" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="51"/>
+      <c r="C216" s="51"/>
+      <c r="D216" s="51"/>
+      <c r="E216" s="51"/>
+      <c r="F216" s="51"/>
+    </row>
+    <row r="217" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="51"/>
+      <c r="C217" s="51"/>
+      <c r="D217" s="51"/>
+      <c r="E217" s="51"/>
+      <c r="F217" s="51"/>
+    </row>
+    <row r="218" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="51"/>
+      <c r="C218" s="51"/>
+      <c r="D218" s="51"/>
+      <c r="E218" s="51"/>
+      <c r="F218" s="51"/>
+    </row>
+    <row r="219" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="51"/>
+      <c r="C219" s="51"/>
+      <c r="D219" s="51"/>
+      <c r="E219" s="51"/>
+      <c r="F219" s="51"/>
+    </row>
+    <row r="220" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="51"/>
+      <c r="C220" s="51"/>
+      <c r="D220" s="51"/>
+      <c r="E220" s="51"/>
+      <c r="F220" s="51"/>
+    </row>
+    <row r="221" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="51"/>
+      <c r="C221" s="51"/>
+      <c r="D221" s="51"/>
+      <c r="E221" s="51"/>
+      <c r="F221" s="51"/>
+    </row>
+    <row r="222" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="51"/>
+      <c r="C222" s="51"/>
+      <c r="D222" s="51"/>
+      <c r="E222" s="51"/>
+      <c r="F222" s="51"/>
+    </row>
+    <row r="223" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="51"/>
+      <c r="C223" s="51"/>
+      <c r="D223" s="51"/>
+      <c r="E223" s="51"/>
+      <c r="F223" s="51"/>
+    </row>
+    <row r="225" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C213" s="66"/>
-      <c r="D213" s="70"/>
-      <c r="E213" s="71"/>
-      <c r="F213" s="72"/>
-    </row>
-    <row r="214" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="65" t="s">
+    </row>
+    <row r="226" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C226" s="60"/>
+      <c r="D226" s="64"/>
+      <c r="E226" s="65"/>
+      <c r="F226" s="66"/>
+    </row>
+    <row r="227" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="68"/>
+      <c r="C227" s="69"/>
+      <c r="D227" s="69"/>
+      <c r="E227" s="69"/>
+      <c r="F227" s="70"/>
+    </row>
+    <row r="228" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="71"/>
+      <c r="C228" s="72"/>
+      <c r="D228" s="72"/>
+      <c r="E228" s="72"/>
+      <c r="F228" s="73"/>
+    </row>
+    <row r="229" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="71"/>
+      <c r="C229" s="72"/>
+      <c r="D229" s="72"/>
+      <c r="E229" s="72"/>
+      <c r="F229" s="73"/>
+    </row>
+    <row r="230" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="71"/>
+      <c r="C230" s="72"/>
+      <c r="D230" s="72"/>
+      <c r="E230" s="72"/>
+      <c r="F230" s="73"/>
+    </row>
+    <row r="231" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="71"/>
+      <c r="C231" s="72"/>
+      <c r="D231" s="72"/>
+      <c r="E231" s="72"/>
+      <c r="F231" s="73"/>
+    </row>
+    <row r="232" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="71"/>
+      <c r="C232" s="72"/>
+      <c r="D232" s="72"/>
+      <c r="E232" s="72"/>
+      <c r="F232" s="73"/>
+    </row>
+    <row r="233" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="74"/>
+      <c r="C233" s="75"/>
+      <c r="D233" s="75"/>
+      <c r="E233" s="75"/>
+      <c r="F233" s="76"/>
+    </row>
+    <row r="235" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C214" s="66"/>
-      <c r="D214" s="70"/>
-      <c r="E214" s="71"/>
-      <c r="F214" s="72"/>
-    </row>
-    <row r="215" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="57"/>
-      <c r="C215" s="57"/>
-      <c r="D215" s="57"/>
-      <c r="E215" s="57"/>
-      <c r="F215" s="57"/>
-    </row>
-    <row r="216" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="57"/>
-      <c r="C216" s="57"/>
-      <c r="D216" s="57"/>
-      <c r="E216" s="57"/>
-      <c r="F216" s="57"/>
-    </row>
-    <row r="217" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="57"/>
-      <c r="C217" s="57"/>
-      <c r="D217" s="57"/>
-      <c r="E217" s="57"/>
-      <c r="F217" s="57"/>
-    </row>
-    <row r="218" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="57"/>
-      <c r="C218" s="57"/>
-      <c r="D218" s="57"/>
-      <c r="E218" s="57"/>
-      <c r="F218" s="57"/>
-    </row>
-    <row r="219" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="57"/>
-      <c r="C219" s="57"/>
-      <c r="D219" s="57"/>
-      <c r="E219" s="57"/>
-      <c r="F219" s="57"/>
-    </row>
-    <row r="220" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="57"/>
-      <c r="C220" s="57"/>
-      <c r="D220" s="57"/>
-      <c r="E220" s="57"/>
-      <c r="F220" s="57"/>
-    </row>
-    <row r="221" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="57"/>
-      <c r="C221" s="57"/>
-      <c r="D221" s="57"/>
-      <c r="E221" s="57"/>
-      <c r="F221" s="57"/>
-    </row>
-    <row r="222" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="57"/>
-      <c r="C222" s="57"/>
-      <c r="D222" s="57"/>
-      <c r="E222" s="57"/>
-      <c r="F222" s="57"/>
-    </row>
-    <row r="223" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="57"/>
-      <c r="C223" s="57"/>
-      <c r="D223" s="57"/>
-      <c r="E223" s="57"/>
-      <c r="F223" s="57"/>
-    </row>
-    <row r="225" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="10" t="s">
+    </row>
+    <row r="236" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C236" s="60"/>
+      <c r="D236" s="64"/>
+      <c r="E236" s="65"/>
+      <c r="F236" s="66"/>
+    </row>
+    <row r="237" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="59" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="226" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C226" s="66"/>
-      <c r="D226" s="70"/>
-      <c r="E226" s="71"/>
-      <c r="F226" s="72"/>
-    </row>
-    <row r="227" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="74"/>
-      <c r="C227" s="75"/>
-      <c r="D227" s="75"/>
-      <c r="E227" s="75"/>
-      <c r="F227" s="76"/>
-    </row>
-    <row r="228" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="42"/>
-      <c r="C228" s="77"/>
-      <c r="D228" s="77"/>
-      <c r="E228" s="77"/>
-      <c r="F228" s="43"/>
-    </row>
-    <row r="229" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="42"/>
-      <c r="C229" s="77"/>
-      <c r="D229" s="77"/>
-      <c r="E229" s="77"/>
-      <c r="F229" s="43"/>
-    </row>
-    <row r="230" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="42"/>
-      <c r="C230" s="77"/>
-      <c r="D230" s="77"/>
-      <c r="E230" s="77"/>
-      <c r="F230" s="43"/>
-    </row>
-    <row r="231" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="42"/>
-      <c r="C231" s="77"/>
-      <c r="D231" s="77"/>
-      <c r="E231" s="77"/>
-      <c r="F231" s="43"/>
-    </row>
-    <row r="232" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="42"/>
-      <c r="C232" s="77"/>
-      <c r="D232" s="77"/>
-      <c r="E232" s="77"/>
-      <c r="F232" s="43"/>
-    </row>
-    <row r="233" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="78"/>
-      <c r="C233" s="79"/>
-      <c r="D233" s="79"/>
-      <c r="E233" s="79"/>
-      <c r="F233" s="80"/>
-    </row>
-    <row r="235" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="10" t="s">
+      <c r="C237" s="60"/>
+      <c r="D237" s="64"/>
+      <c r="E237" s="65"/>
+      <c r="F237" s="66"/>
+    </row>
+    <row r="238" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="68"/>
+      <c r="C238" s="69"/>
+      <c r="D238" s="69"/>
+      <c r="E238" s="69"/>
+      <c r="F238" s="70"/>
+    </row>
+    <row r="239" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="71"/>
+      <c r="C239" s="72"/>
+      <c r="D239" s="72"/>
+      <c r="E239" s="72"/>
+      <c r="F239" s="73"/>
+    </row>
+    <row r="240" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="71"/>
+      <c r="C240" s="72"/>
+      <c r="D240" s="72"/>
+      <c r="E240" s="72"/>
+      <c r="F240" s="73"/>
+    </row>
+    <row r="241" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="71"/>
+      <c r="C241" s="72"/>
+      <c r="D241" s="72"/>
+      <c r="E241" s="72"/>
+      <c r="F241" s="73"/>
+    </row>
+    <row r="242" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="71"/>
+      <c r="C242" s="72"/>
+      <c r="D242" s="72"/>
+      <c r="E242" s="72"/>
+      <c r="F242" s="73"/>
+    </row>
+    <row r="243" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="71"/>
+      <c r="C243" s="72"/>
+      <c r="D243" s="72"/>
+      <c r="E243" s="72"/>
+      <c r="F243" s="73"/>
+    </row>
+    <row r="244" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="74"/>
+      <c r="C244" s="75"/>
+      <c r="D244" s="75"/>
+      <c r="E244" s="75"/>
+      <c r="F244" s="76"/>
+    </row>
+    <row r="245" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="59" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="236" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C236" s="66"/>
-      <c r="D236" s="70"/>
-      <c r="E236" s="71"/>
-      <c r="F236" s="72"/>
-    </row>
-    <row r="237" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="65" t="s">
+      <c r="C245" s="60"/>
+      <c r="D245" s="64"/>
+      <c r="E245" s="65"/>
+      <c r="F245" s="66"/>
+    </row>
+    <row r="248" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C237" s="66"/>
-      <c r="D237" s="70"/>
-      <c r="E237" s="71"/>
-      <c r="F237" s="72"/>
-    </row>
-    <row r="238" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="74"/>
-      <c r="C238" s="75"/>
-      <c r="D238" s="75"/>
-      <c r="E238" s="75"/>
-      <c r="F238" s="76"/>
-    </row>
-    <row r="239" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="42"/>
-      <c r="C239" s="77"/>
-      <c r="D239" s="77"/>
-      <c r="E239" s="77"/>
-      <c r="F239" s="43"/>
-    </row>
-    <row r="240" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="42"/>
-      <c r="C240" s="77"/>
-      <c r="D240" s="77"/>
-      <c r="E240" s="77"/>
-      <c r="F240" s="43"/>
-    </row>
-    <row r="241" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="42"/>
-      <c r="C241" s="77"/>
-      <c r="D241" s="77"/>
-      <c r="E241" s="77"/>
-      <c r="F241" s="43"/>
-    </row>
-    <row r="242" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="42"/>
-      <c r="C242" s="77"/>
-      <c r="D242" s="77"/>
-      <c r="E242" s="77"/>
-      <c r="F242" s="43"/>
-    </row>
-    <row r="243" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="42"/>
-      <c r="C243" s="77"/>
-      <c r="D243" s="77"/>
-      <c r="E243" s="77"/>
-      <c r="F243" s="43"/>
-    </row>
-    <row r="244" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="78"/>
-      <c r="C244" s="79"/>
-      <c r="D244" s="79"/>
-      <c r="E244" s="79"/>
-      <c r="F244" s="80"/>
-    </row>
-    <row r="245" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="65" t="s">
+    </row>
+    <row r="249" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C249" s="60"/>
+      <c r="D249" s="64"/>
+      <c r="E249" s="65"/>
+      <c r="F249" s="66"/>
+    </row>
+    <row r="250" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="51"/>
+      <c r="C250" s="51"/>
+      <c r="D250" s="51"/>
+      <c r="E250" s="51"/>
+      <c r="F250" s="51"/>
+    </row>
+    <row r="251" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="51"/>
+      <c r="C251" s="51"/>
+      <c r="D251" s="51"/>
+      <c r="E251" s="51"/>
+      <c r="F251" s="51"/>
+    </row>
+    <row r="252" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="51"/>
+      <c r="C252" s="51"/>
+      <c r="D252" s="51"/>
+      <c r="E252" s="51"/>
+      <c r="F252" s="51"/>
+    </row>
+    <row r="253" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="51"/>
+      <c r="C253" s="51"/>
+      <c r="D253" s="51"/>
+      <c r="E253" s="51"/>
+      <c r="F253" s="51"/>
+    </row>
+    <row r="254" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="51"/>
+      <c r="C254" s="51"/>
+      <c r="D254" s="51"/>
+      <c r="E254" s="51"/>
+      <c r="F254" s="51"/>
+    </row>
+    <row r="255" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="51"/>
+      <c r="C255" s="51"/>
+      <c r="D255" s="51"/>
+      <c r="E255" s="51"/>
+      <c r="F255" s="51"/>
+    </row>
+    <row r="256" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="51"/>
+      <c r="C256" s="51"/>
+      <c r="D256" s="51"/>
+      <c r="E256" s="51"/>
+      <c r="F256" s="51"/>
+    </row>
+    <row r="258" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C245" s="66"/>
-      <c r="D245" s="70"/>
-      <c r="E245" s="71"/>
-      <c r="F245" s="72"/>
-    </row>
-    <row r="248" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B248" s="10" t="s">
+    </row>
+    <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C259" s="60"/>
+      <c r="D259" s="64"/>
+      <c r="E259" s="65"/>
+      <c r="F259" s="66"/>
+    </row>
+    <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="51"/>
+      <c r="C260" s="51"/>
+      <c r="D260" s="51"/>
+      <c r="E260" s="51"/>
+      <c r="F260" s="51"/>
+    </row>
+    <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="51"/>
+      <c r="C261" s="51"/>
+      <c r="D261" s="51"/>
+      <c r="E261" s="51"/>
+      <c r="F261" s="51"/>
+    </row>
+    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="51"/>
+      <c r="C262" s="51"/>
+      <c r="D262" s="51"/>
+      <c r="E262" s="51"/>
+      <c r="F262" s="51"/>
+    </row>
+    <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="51"/>
+      <c r="C263" s="51"/>
+      <c r="D263" s="51"/>
+      <c r="E263" s="51"/>
+      <c r="F263" s="51"/>
+    </row>
+    <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="51"/>
+      <c r="C264" s="51"/>
+      <c r="D264" s="51"/>
+      <c r="E264" s="51"/>
+      <c r="F264" s="51"/>
+    </row>
+    <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="51"/>
+      <c r="C265" s="51"/>
+      <c r="D265" s="51"/>
+      <c r="E265" s="51"/>
+      <c r="F265" s="51"/>
+    </row>
+    <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="51"/>
+      <c r="C266" s="51"/>
+      <c r="D266" s="51"/>
+      <c r="E266" s="51"/>
+      <c r="F266" s="51"/>
+    </row>
+    <row r="268" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="249" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C249" s="66"/>
-      <c r="D249" s="70"/>
-      <c r="E249" s="71"/>
-      <c r="F249" s="72"/>
-    </row>
-    <row r="250" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="57"/>
-      <c r="C250" s="57"/>
-      <c r="D250" s="57"/>
-      <c r="E250" s="57"/>
-      <c r="F250" s="57"/>
-    </row>
-    <row r="251" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="57"/>
-      <c r="C251" s="57"/>
-      <c r="D251" s="57"/>
-      <c r="E251" s="57"/>
-      <c r="F251" s="57"/>
-    </row>
-    <row r="252" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B252" s="57"/>
-      <c r="C252" s="57"/>
-      <c r="D252" s="57"/>
-      <c r="E252" s="57"/>
-      <c r="F252" s="57"/>
-    </row>
-    <row r="253" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="57"/>
-      <c r="C253" s="57"/>
-      <c r="D253" s="57"/>
-      <c r="E253" s="57"/>
-      <c r="F253" s="57"/>
-    </row>
-    <row r="254" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="57"/>
-      <c r="C254" s="57"/>
-      <c r="D254" s="57"/>
-      <c r="E254" s="57"/>
-      <c r="F254" s="57"/>
-    </row>
-    <row r="255" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="57"/>
-      <c r="C255" s="57"/>
-      <c r="D255" s="57"/>
-      <c r="E255" s="57"/>
-      <c r="F255" s="57"/>
-    </row>
-    <row r="256" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="57"/>
-      <c r="C256" s="57"/>
-      <c r="D256" s="57"/>
-      <c r="E256" s="57"/>
-      <c r="F256" s="57"/>
-    </row>
-    <row r="258" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="10" t="s">
+    <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="59" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C259" s="66"/>
-      <c r="D259" s="70"/>
-      <c r="E259" s="71"/>
-      <c r="F259" s="72"/>
-    </row>
-    <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="57"/>
-      <c r="C260" s="57"/>
-      <c r="D260" s="57"/>
-      <c r="E260" s="57"/>
-      <c r="F260" s="57"/>
-    </row>
-    <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="57"/>
-      <c r="C261" s="57"/>
-      <c r="D261" s="57"/>
-      <c r="E261" s="57"/>
-      <c r="F261" s="57"/>
-    </row>
-    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="57"/>
-      <c r="C262" s="57"/>
-      <c r="D262" s="57"/>
-      <c r="E262" s="57"/>
-      <c r="F262" s="57"/>
-    </row>
-    <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="57"/>
-      <c r="C263" s="57"/>
-      <c r="D263" s="57"/>
-      <c r="E263" s="57"/>
-      <c r="F263" s="57"/>
-    </row>
-    <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="57"/>
-      <c r="C264" s="57"/>
-      <c r="D264" s="57"/>
-      <c r="E264" s="57"/>
-      <c r="F264" s="57"/>
-    </row>
-    <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="57"/>
-      <c r="C265" s="57"/>
-      <c r="D265" s="57"/>
-      <c r="E265" s="57"/>
-      <c r="F265" s="57"/>
-    </row>
-    <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="57"/>
-      <c r="C266" s="57"/>
-      <c r="D266" s="57"/>
-      <c r="E266" s="57"/>
-      <c r="F266" s="57"/>
-    </row>
-    <row r="268" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="9" t="s">
+      <c r="C269" s="60"/>
+      <c r="D269" s="64"/>
+      <c r="E269" s="65"/>
+      <c r="F269" s="66"/>
+    </row>
+    <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="59" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="65" t="s">
+      <c r="C270" s="60"/>
+      <c r="D270" s="64"/>
+      <c r="E270" s="65"/>
+      <c r="F270" s="66"/>
+    </row>
+    <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="51"/>
+      <c r="C271" s="51"/>
+      <c r="D271" s="51"/>
+      <c r="E271" s="51"/>
+      <c r="F271" s="51"/>
+    </row>
+    <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="51"/>
+      <c r="C272" s="51"/>
+      <c r="D272" s="51"/>
+      <c r="E272" s="51"/>
+      <c r="F272" s="51"/>
+    </row>
+    <row r="273" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="51"/>
+      <c r="C273" s="51"/>
+      <c r="D273" s="51"/>
+      <c r="E273" s="51"/>
+      <c r="F273" s="51"/>
+    </row>
+    <row r="274" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="51"/>
+      <c r="C274" s="51"/>
+      <c r="D274" s="51"/>
+      <c r="E274" s="51"/>
+      <c r="F274" s="51"/>
+    </row>
+    <row r="275" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="51"/>
+      <c r="C275" s="51"/>
+      <c r="D275" s="51"/>
+      <c r="E275" s="51"/>
+      <c r="F275" s="51"/>
+    </row>
+    <row r="276" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="51"/>
+      <c r="C276" s="51"/>
+      <c r="D276" s="51"/>
+      <c r="E276" s="51"/>
+      <c r="F276" s="51"/>
+    </row>
+    <row r="277" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="51"/>
+      <c r="C277" s="51"/>
+      <c r="D277" s="51"/>
+      <c r="E277" s="51"/>
+      <c r="F277" s="51"/>
+    </row>
+    <row r="281" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C269" s="66"/>
-      <c r="D269" s="70"/>
-      <c r="E269" s="71"/>
-      <c r="F269" s="72"/>
-    </row>
-    <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="65" t="s">
+    </row>
+    <row r="283" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B283" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C283" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C270" s="66"/>
-      <c r="D270" s="70"/>
-      <c r="E270" s="71"/>
-      <c r="F270" s="72"/>
-    </row>
-    <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="57"/>
-      <c r="C271" s="57"/>
-      <c r="D271" s="57"/>
-      <c r="E271" s="57"/>
-      <c r="F271" s="57"/>
-    </row>
-    <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="57"/>
-      <c r="C272" s="57"/>
-      <c r="D272" s="57"/>
-      <c r="E272" s="57"/>
-      <c r="F272" s="57"/>
-    </row>
-    <row r="273" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="57"/>
-      <c r="C273" s="57"/>
-      <c r="D273" s="57"/>
-      <c r="E273" s="57"/>
-      <c r="F273" s="57"/>
-    </row>
-    <row r="274" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="57"/>
-      <c r="C274" s="57"/>
-      <c r="D274" s="57"/>
-      <c r="E274" s="57"/>
-      <c r="F274" s="57"/>
-    </row>
-    <row r="275" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="57"/>
-      <c r="C275" s="57"/>
-      <c r="D275" s="57"/>
-      <c r="E275" s="57"/>
-      <c r="F275" s="57"/>
-    </row>
-    <row r="276" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="57"/>
-      <c r="C276" s="57"/>
-      <c r="D276" s="57"/>
-      <c r="E276" s="57"/>
-      <c r="F276" s="57"/>
-    </row>
-    <row r="277" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="57"/>
-      <c r="C277" s="57"/>
-      <c r="D277" s="57"/>
-      <c r="E277" s="57"/>
-      <c r="F277" s="57"/>
-    </row>
-    <row r="281" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="9" t="s">
+      <c r="D283" s="87" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B283" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C283" s="19" t="s">
+      <c r="E283" s="87"/>
+      <c r="F283" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D283" s="91" t="s">
+      <c r="G283" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="19"/>
+      <c r="B284" s="19"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="47"/>
+      <c r="E284" s="48"/>
+      <c r="F284" s="19"/>
+      <c r="G284" s="19"/>
+    </row>
+    <row r="285" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="19"/>
+      <c r="B285" s="19"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="47"/>
+      <c r="E285" s="48"/>
+      <c r="F285" s="19"/>
+      <c r="G285" s="19"/>
+    </row>
+    <row r="286" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="19"/>
+      <c r="B286" s="19"/>
+      <c r="C286" s="20"/>
+      <c r="D286" s="47"/>
+      <c r="E286" s="48"/>
+      <c r="F286" s="19"/>
+      <c r="G286" s="19"/>
+    </row>
+    <row r="287" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="19"/>
+      <c r="B287" s="19"/>
+      <c r="C287" s="20"/>
+      <c r="D287" s="47"/>
+      <c r="E287" s="48"/>
+      <c r="F287" s="19"/>
+      <c r="G287" s="19"/>
+    </row>
+    <row r="288" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="19"/>
+      <c r="B288" s="19"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="47"/>
+      <c r="E288" s="48"/>
+      <c r="F288" s="19"/>
+      <c r="G288" s="19"/>
+    </row>
+    <row r="289" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="19"/>
+      <c r="B289" s="19"/>
+      <c r="C289" s="20"/>
+      <c r="D289" s="47"/>
+      <c r="E289" s="48"/>
+      <c r="F289" s="19"/>
+      <c r="G289" s="19"/>
+    </row>
+    <row r="290" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="19"/>
+      <c r="B290" s="19"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="47"/>
+      <c r="E290" s="48"/>
+      <c r="F290" s="19"/>
+      <c r="G290" s="19"/>
+    </row>
+    <row r="291" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="19"/>
+      <c r="B291" s="19"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="47"/>
+      <c r="E291" s="48"/>
+      <c r="F291" s="19"/>
+      <c r="G291" s="19"/>
+    </row>
+    <row r="292" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="19"/>
+      <c r="B292" s="19"/>
+      <c r="C292" s="20"/>
+      <c r="D292" s="47"/>
+      <c r="E292" s="48"/>
+      <c r="F292" s="19"/>
+      <c r="G292" s="19"/>
+    </row>
+    <row r="293" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="19"/>
+      <c r="B293" s="19"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="47"/>
+      <c r="E293" s="48"/>
+      <c r="F293" s="19"/>
+      <c r="G293" s="19"/>
+    </row>
+    <row r="294" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="19"/>
+      <c r="B294" s="19"/>
+      <c r="C294" s="20"/>
+      <c r="D294" s="47"/>
+      <c r="E294" s="48"/>
+      <c r="F294" s="19"/>
+      <c r="G294" s="19"/>
+    </row>
+    <row r="295" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="19"/>
+      <c r="B295" s="19"/>
+      <c r="C295" s="20"/>
+      <c r="D295" s="47"/>
+      <c r="E295" s="48"/>
+      <c r="F295" s="19"/>
+      <c r="G295" s="19"/>
+    </row>
+    <row r="296" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="19"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="20"/>
+      <c r="D296" s="47"/>
+      <c r="E296" s="48"/>
+      <c r="F296" s="19"/>
+      <c r="G296" s="19"/>
+    </row>
+    <row r="297" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="19"/>
+      <c r="B297" s="19"/>
+      <c r="C297" s="20"/>
+      <c r="D297" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E283" s="91"/>
-      <c r="F283" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G283" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="21"/>
-      <c r="B284" s="21"/>
-      <c r="C284" s="22"/>
-      <c r="D284" s="53"/>
-      <c r="E284" s="54"/>
-      <c r="F284" s="21"/>
-      <c r="G284" s="21"/>
-    </row>
-    <row r="285" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="21"/>
-      <c r="B285" s="21"/>
-      <c r="C285" s="22"/>
-      <c r="D285" s="53"/>
-      <c r="E285" s="54"/>
-      <c r="F285" s="21"/>
-      <c r="G285" s="21"/>
-    </row>
-    <row r="286" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="21"/>
-      <c r="B286" s="21"/>
-      <c r="C286" s="22"/>
-      <c r="D286" s="53"/>
-      <c r="E286" s="54"/>
-      <c r="F286" s="21"/>
-      <c r="G286" s="21"/>
-    </row>
-    <row r="287" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="21"/>
-      <c r="B287" s="21"/>
-      <c r="C287" s="22"/>
-      <c r="D287" s="53"/>
-      <c r="E287" s="54"/>
-      <c r="F287" s="21"/>
-      <c r="G287" s="21"/>
-    </row>
-    <row r="288" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="21"/>
-      <c r="B288" s="21"/>
-      <c r="C288" s="22"/>
-      <c r="D288" s="53"/>
-      <c r="E288" s="54"/>
-      <c r="F288" s="21"/>
-      <c r="G288" s="21"/>
-    </row>
-    <row r="289" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="21"/>
-      <c r="B289" s="21"/>
-      <c r="C289" s="22"/>
-      <c r="D289" s="53"/>
-      <c r="E289" s="54"/>
-      <c r="F289" s="21"/>
-      <c r="G289" s="21"/>
-    </row>
-    <row r="290" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="21"/>
-      <c r="B290" s="21"/>
-      <c r="C290" s="22"/>
-      <c r="D290" s="53"/>
-      <c r="E290" s="54"/>
-      <c r="F290" s="21"/>
-      <c r="G290" s="21"/>
-    </row>
-    <row r="291" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="21"/>
-      <c r="B291" s="21"/>
-      <c r="C291" s="22"/>
-      <c r="D291" s="53"/>
-      <c r="E291" s="54"/>
-      <c r="F291" s="21"/>
-      <c r="G291" s="21"/>
-    </row>
-    <row r="292" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="21"/>
-      <c r="B292" s="21"/>
-      <c r="C292" s="22"/>
-      <c r="D292" s="53"/>
-      <c r="E292" s="54"/>
-      <c r="F292" s="21"/>
-      <c r="G292" s="21"/>
-    </row>
-    <row r="293" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="21"/>
-      <c r="B293" s="21"/>
-      <c r="C293" s="22"/>
-      <c r="D293" s="53"/>
-      <c r="E293" s="54"/>
-      <c r="F293" s="21"/>
-      <c r="G293" s="21"/>
-    </row>
-    <row r="294" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="21"/>
-      <c r="B294" s="21"/>
-      <c r="C294" s="22"/>
-      <c r="D294" s="53"/>
-      <c r="E294" s="54"/>
-      <c r="F294" s="21"/>
-      <c r="G294" s="21"/>
-    </row>
-    <row r="295" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="21"/>
-      <c r="B295" s="21"/>
-      <c r="C295" s="22"/>
-      <c r="D295" s="53"/>
-      <c r="E295" s="54"/>
-      <c r="F295" s="21"/>
-      <c r="G295" s="21"/>
-    </row>
-    <row r="296" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="21"/>
-      <c r="B296" s="21"/>
-      <c r="C296" s="22"/>
-      <c r="D296" s="53"/>
-      <c r="E296" s="54"/>
-      <c r="F296" s="21"/>
-      <c r="G296" s="21"/>
-    </row>
-    <row r="297" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="21"/>
-      <c r="B297" s="21"/>
-      <c r="C297" s="22"/>
-      <c r="D297" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="E297" s="54"/>
-      <c r="F297" s="21"/>
-      <c r="G297" s="21"/>
+      <c r="E297" s="48"/>
+      <c r="F297" s="19"/>
+      <c r="G297" s="19"/>
     </row>
     <row r="342" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="344" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="9" t="s">
+      <c r="A344" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B345" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C345" s="88"/>
+      <c r="D345" s="88"/>
+      <c r="E345" s="88"/>
+      <c r="F345" s="88"/>
+    </row>
+    <row r="347" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="84" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B345" s="92" t="s">
+      <c r="C347" s="85"/>
+      <c r="D347" s="85"/>
+      <c r="E347" s="85"/>
+      <c r="F347" s="86"/>
+    </row>
+    <row r="348" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="51"/>
+      <c r="C348" s="51"/>
+      <c r="D348" s="51"/>
+      <c r="E348" s="51"/>
+      <c r="F348" s="51"/>
+    </row>
+    <row r="349" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B349" s="51"/>
+      <c r="C349" s="51"/>
+      <c r="D349" s="51"/>
+      <c r="E349" s="51"/>
+      <c r="F349" s="51"/>
+    </row>
+    <row r="352" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B352" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="C345" s="92"/>
-      <c r="D345" s="92"/>
-      <c r="E345" s="92"/>
-      <c r="F345" s="92"/>
-    </row>
-    <row r="347" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B347" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="C347" s="89"/>
-      <c r="D347" s="89"/>
-      <c r="E347" s="89"/>
-      <c r="F347" s="90"/>
-    </row>
-    <row r="348" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B348" s="57"/>
-      <c r="C348" s="57"/>
-      <c r="D348" s="57"/>
-      <c r="E348" s="57"/>
-      <c r="F348" s="57"/>
-    </row>
-    <row r="349" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B349" s="57"/>
-      <c r="C349" s="57"/>
-      <c r="D349" s="57"/>
-      <c r="E349" s="57"/>
-      <c r="F349" s="57"/>
-    </row>
-    <row r="352" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B352" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="C352" s="89"/>
-      <c r="D352" s="89"/>
-      <c r="E352" s="89"/>
-      <c r="F352" s="90"/>
+      <c r="C352" s="85"/>
+      <c r="D352" s="85"/>
+      <c r="E352" s="85"/>
+      <c r="F352" s="86"/>
     </row>
     <row r="353" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B353" s="88" t="s">
+      <c r="B353" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C353" s="89"/>
-      <c r="D353" s="89"/>
-      <c r="E353" s="89"/>
-      <c r="F353" s="90"/>
+      <c r="C353" s="85"/>
+      <c r="D353" s="85"/>
+      <c r="E353" s="85"/>
+      <c r="F353" s="86"/>
     </row>
     <row r="354" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B354" s="88"/>
-      <c r="C354" s="89"/>
-      <c r="D354" s="89"/>
-      <c r="E354" s="89"/>
-      <c r="F354" s="90"/>
+      <c r="B354" s="84"/>
+      <c r="C354" s="85"/>
+      <c r="D354" s="85"/>
+      <c r="E354" s="85"/>
+      <c r="F354" s="86"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
